--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1518308.918405748</v>
+        <v>1604542.149316904</v>
       </c>
     </row>
     <row r="7">
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>126.7066250192807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>178.5599501440774</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1464,7 +1466,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>21.69126064627583</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I12" t="n">
         <v>21.30239922246436</v>
@@ -1509,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>180.2518826854714</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99416705978207</v>
+        <v>101.6844380695183</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>51.66190213530723</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>3.323670353574439</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>107.504379202417</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1701,7 +1703,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>42.99365986874107</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>251.5630544642306</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>118.2694521832856</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>294.5615428178805</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91173879866618</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>63.92264786388792</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
         <v>93.13436112172583</v>
@@ -1974,7 +1976,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T18" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512199</v>
       </c>
       <c r="U18" t="n">
         <v>225.8112657109832</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>145.2157565724943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>77.22810184760063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>18.21466120005499</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>36.8165432996403</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>84.8062813898832</v>
+        <v>63.50388216741982</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>118.2694521832852</v>
+        <v>185.2914354096363</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>214.181648548325</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>173.1047135344084</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2406,7 +2408,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933837</v>
       </c>
       <c r="G24" t="n">
         <v>135.3657483393379</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2496,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>168.8897502795007</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>75.23940160704608</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>193.6915165872692</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>195.3237932237977</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2731,7 +2733,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>15.5300389413396</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.3035000843582</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>74.34610651883891</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,10 +2809,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
-        <v>301.6186538912489</v>
+        <v>236.0351592377969</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H30" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172572</v>
       </c>
       <c r="I30" t="n">
         <v>21.30239922246436</v>
@@ -2956,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>206.2612394967936</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.7314880191492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>301.694908946953</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>90.4099292339254</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>53.76397372915812</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>118.2694521832854</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3283,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>245.2442950123523</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>113.5603911967314</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3354,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>73.62611191793694</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>135.3657483393379</v>
@@ -3411,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>134.2395953018548</v>
       </c>
     </row>
     <row r="37">
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>37.76499164199451</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>200.1983439946921</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4521260920187</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>40.39077068973986</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>42.99365986874107</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T39" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512185</v>
       </c>
       <c r="U39" t="n">
         <v>225.8112657109832</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>65.15928918313377</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>42.82949826753362</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>5.964087773461278</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>138.9287518061343</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>101.2653985128661</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3831,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3657483393379</v>
+        <v>63.92264786388483</v>
       </c>
       <c r="H42" t="n">
         <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>116.7212856396786</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>200.198343994692</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,13 +3982,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>181.5157697726431</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>51.13823877307454</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>101.2653985128625</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4074,7 +4076,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,7 +4109,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T45" t="n">
-        <v>142.0522311736823</v>
+        <v>192.192932426668</v>
       </c>
       <c r="U45" t="n">
         <v>225.8112657109832</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.8720363095763</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>50.3311071987893</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2362.904956516632</v>
+        <v>1588.875319257905</v>
       </c>
       <c r="C11" t="n">
-        <v>1993.942439576221</v>
+        <v>1219.912802317494</v>
       </c>
       <c r="D11" t="n">
-        <v>1635.67674096947</v>
+        <v>1219.912802317494</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.888488371226</v>
+        <v>834.1245497192494</v>
       </c>
       <c r="F11" t="n">
-        <v>838.9025835816184</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="G11" t="n">
         <v>423.1386449296419</v>
@@ -5036,55 +5038,55 @@
         <v>118.4733379687844</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799486</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S11" t="n">
-        <v>2490.891446435098</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T11" t="n">
-        <v>2490.891446435098</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U11" t="n">
-        <v>2490.891446435098</v>
+        <v>1975.475159322027</v>
       </c>
       <c r="V11" t="n">
-        <v>2490.891446435098</v>
+        <v>1975.475159322027</v>
       </c>
       <c r="W11" t="n">
-        <v>2490.891446435098</v>
+        <v>1975.475159322027</v>
       </c>
       <c r="X11" t="n">
-        <v>2490.891446435098</v>
+        <v>1975.475159322027</v>
       </c>
       <c r="Y11" t="n">
-        <v>2490.891446435098</v>
+        <v>1975.475159322027</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>859.1382992416488</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C12" t="n">
-        <v>684.6852699605219</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D12" t="n">
-        <v>535.7508602992706</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E12" t="n">
-        <v>376.5134052938151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F12" t="n">
-        <v>229.9788473207001</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G12" t="n">
-        <v>93.24576819005568</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H12" t="n">
-        <v>71.33540390088818</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K12" t="n">
-        <v>288.9454078621913</v>
+        <v>560.6342506504922</v>
       </c>
       <c r="L12" t="n">
-        <v>576.9096910448538</v>
+        <v>848.5985338331548</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.162637661386</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N12" t="n">
-        <v>1499.37520389169</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O12" t="n">
-        <v>2115.870836884377</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P12" t="n">
-        <v>2357.126603646086</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.480498228519</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.354900192148</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V12" t="n">
-        <v>1697.202791960405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W12" t="n">
-        <v>1442.965435232204</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X12" t="n">
-        <v>1235.113935026671</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y12" t="n">
-        <v>1027.353636261717</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.315231116727</v>
+        <v>812.6486429481502</v>
       </c>
       <c r="C13" t="n">
-        <v>918.37904818882</v>
+        <v>643.7124600202433</v>
       </c>
       <c r="D13" t="n">
-        <v>768.2624087764842</v>
+        <v>493.5958206079075</v>
       </c>
       <c r="E13" t="n">
-        <v>620.3493151940911</v>
+        <v>345.6827270255144</v>
       </c>
       <c r="F13" t="n">
-        <v>473.4593676961807</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G13" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477627</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N13" t="n">
         <v>1104.867129907538</v>
@@ -5215,34 +5217,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q13" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R13" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S13" t="n">
-        <v>1308.3517434821</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T13" t="n">
-        <v>1308.3517434821</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U13" t="n">
-        <v>1308.3517434821</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V13" t="n">
-        <v>1308.3517434821</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="W13" t="n">
-        <v>1308.3517434821</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="X13" t="n">
-        <v>1308.3517434821</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="Y13" t="n">
-        <v>1268.963695946966</v>
+        <v>994.2971077783899</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1257.041424453918</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="C14" t="n">
-        <v>1204.857684923304</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="D14" t="n">
-        <v>846.5919863165539</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="E14" t="n">
-        <v>460.8037337183096</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="F14" t="n">
-        <v>49.81782892870198</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G14" t="n">
-        <v>49.81782892870198</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
         <v>181.1756535819836</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O14" t="n">
         <v>2002.031077317524</v>
@@ -5297,31 +5299,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T14" t="n">
-        <v>2364.843483837422</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U14" t="n">
-        <v>2364.843483837422</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="V14" t="n">
-        <v>2033.780596493851</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="W14" t="n">
-        <v>2033.780596493851</v>
+        <v>1567.832819395265</v>
       </c>
       <c r="X14" t="n">
-        <v>2033.780596493851</v>
+        <v>1567.832819395265</v>
       </c>
       <c r="Y14" t="n">
-        <v>1643.641264518039</v>
+        <v>1567.832819395265</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416497</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605228</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992715</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E15" t="n">
-        <v>376.513405293816</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F15" t="n">
-        <v>229.978847320701</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G15" t="n">
-        <v>93.24576819005659</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H15" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K15" t="n">
-        <v>288.9454078621914</v>
+        <v>675.596117491649</v>
       </c>
       <c r="L15" t="n">
-        <v>576.9096910448538</v>
+        <v>963.5604006743116</v>
       </c>
       <c r="M15" t="n">
-        <v>932.3072952935254</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N15" t="n">
-        <v>1311.51986152383</v>
+        <v>1698.170571153288</v>
       </c>
       <c r="O15" t="n">
-        <v>1636.205479237587</v>
+        <v>2022.856188867045</v>
       </c>
       <c r="P15" t="n">
-        <v>2149.150088787596</v>
+        <v>2264.111955628754</v>
       </c>
       <c r="Q15" t="n">
         <v>2468.48049822852</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W15" t="n">
         <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.315231116727</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C16" t="n">
-        <v>918.37904818882</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D16" t="n">
-        <v>768.2624087764842</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E16" t="n">
-        <v>620.3493151940911</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F16" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G16" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M16" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N16" t="n">
         <v>1104.867129907538</v>
@@ -5455,31 +5457,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q16" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S16" t="n">
-        <v>1609.220368204926</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T16" t="n">
-        <v>1609.220368204926</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U16" t="n">
-        <v>1609.220368204926</v>
+        <v>934.932912006376</v>
       </c>
       <c r="V16" t="n">
-        <v>1609.220368204926</v>
+        <v>680.2484238004891</v>
       </c>
       <c r="W16" t="n">
-        <v>1609.220368204926</v>
+        <v>680.2484238004891</v>
       </c>
       <c r="X16" t="n">
-        <v>1489.756275090497</v>
+        <v>452.2588729024718</v>
       </c>
       <c r="Y16" t="n">
-        <v>1268.963695946966</v>
+        <v>231.4662937589417</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1340.686516134085</v>
+        <v>1807.059903821415</v>
       </c>
       <c r="C17" t="n">
-        <v>971.7239991936729</v>
+        <v>1807.059903821415</v>
       </c>
       <c r="D17" t="n">
-        <v>971.7239991936729</v>
+        <v>1448.794205214664</v>
       </c>
       <c r="E17" t="n">
-        <v>585.9357465954286</v>
+        <v>1063.00595261642</v>
       </c>
       <c r="F17" t="n">
-        <v>174.949841805821</v>
+        <v>652.0200478268125</v>
       </c>
       <c r="G17" t="n">
-        <v>174.949841805821</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799486</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N17" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S17" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T17" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U17" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="V17" t="n">
-        <v>2490.891446435098</v>
+        <v>2159.828559091529</v>
       </c>
       <c r="W17" t="n">
-        <v>2490.891446435098</v>
+        <v>1807.059903821415</v>
       </c>
       <c r="X17" t="n">
-        <v>2117.425688174018</v>
+        <v>1807.059903821415</v>
       </c>
       <c r="Y17" t="n">
-        <v>1727.286356198206</v>
+        <v>1807.059903821415</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416488</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C18" t="n">
-        <v>684.6852699605219</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D18" t="n">
-        <v>535.7508602992706</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
-        <v>376.5134052938151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F18" t="n">
-        <v>229.9788473207001</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G18" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>71.33540390088818</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J18" t="n">
-        <v>109.2358024440159</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K18" t="n">
-        <v>288.9454078621913</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L18" t="n">
-        <v>580.6049013918259</v>
+        <v>576.9096910448541</v>
       </c>
       <c r="M18" t="n">
-        <v>1197.100534384513</v>
+        <v>1193.405324037541</v>
       </c>
       <c r="N18" t="n">
-        <v>1813.596167377199</v>
+        <v>1809.900957030228</v>
       </c>
       <c r="O18" t="n">
-        <v>2138.281785090956</v>
+        <v>2134.586574743986</v>
       </c>
       <c r="P18" t="n">
-        <v>2379.537551852665</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960405</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232204</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026671</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.353636261717</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.81782892870196</v>
+        <v>660.3783239816547</v>
       </c>
       <c r="C19" t="n">
-        <v>49.81782892870196</v>
+        <v>660.3783239816547</v>
       </c>
       <c r="D19" t="n">
-        <v>49.81782892870196</v>
+        <v>660.3783239816547</v>
       </c>
       <c r="E19" t="n">
-        <v>49.81782892870196</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="F19" t="n">
-        <v>49.81782892870196</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G19" t="n">
-        <v>49.81782892870196</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477627</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K19" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N19" t="n">
         <v>1104.867129907538</v>
@@ -5689,34 +5691,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P19" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q19" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R19" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S19" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T19" t="n">
-        <v>1189.03700742479</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U19" t="n">
-        <v>899.9172217540118</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="V19" t="n">
-        <v>645.232733548125</v>
+        <v>1131.443958848855</v>
       </c>
       <c r="W19" t="n">
-        <v>355.8155635111644</v>
+        <v>842.0267888118944</v>
       </c>
       <c r="X19" t="n">
-        <v>127.826012613147</v>
+        <v>842.0267888118944</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.81782892870196</v>
+        <v>842.0267888118944</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1218.421406906538</v>
+        <v>68.2164766055252</v>
       </c>
       <c r="C20" t="n">
-        <v>1218.421406906538</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D20" t="n">
-        <v>1218.421406906538</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E20" t="n">
-        <v>1218.421406906538</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F20" t="n">
-        <v>807.4355021169301</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G20" t="n">
-        <v>391.6715634649536</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H20" t="n">
-        <v>87.0062565040962</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799485</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549141</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M20" t="n">
         <v>1187.397991240658</v>
@@ -5765,37 +5767,37 @@
         <v>1613.248129085906</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317522</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962847</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837421</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T20" t="n">
-        <v>2155.838745326144</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U20" t="n">
         <v>1902.252949520223</v>
       </c>
       <c r="V20" t="n">
-        <v>1571.190062176652</v>
+        <v>1571.190062176653</v>
       </c>
       <c r="W20" t="n">
-        <v>1218.421406906538</v>
+        <v>1218.421406906539</v>
       </c>
       <c r="X20" t="n">
-        <v>1218.421406906538</v>
+        <v>844.9556486454587</v>
       </c>
       <c r="Y20" t="n">
-        <v>1218.421406906538</v>
+        <v>454.816316669647</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>909.7854722244628</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C21" t="n">
-        <v>735.3324429433358</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D21" t="n">
-        <v>586.3980332820845</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F21" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>49.81782892870196</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J21" t="n">
         <v>234.0659274310207</v>
       </c>
       <c r="K21" t="n">
-        <v>413.775532849196</v>
+        <v>476.8007502300517</v>
       </c>
       <c r="L21" t="n">
-        <v>701.7398160318585</v>
+        <v>764.7650334127143</v>
       </c>
       <c r="M21" t="n">
-        <v>1057.13742028053</v>
+        <v>1120.162637661386</v>
       </c>
       <c r="N21" t="n">
-        <v>1673.633053273217</v>
+        <v>1499.375203891691</v>
       </c>
       <c r="O21" t="n">
-        <v>1998.318670986974</v>
+        <v>2115.870836884378</v>
       </c>
       <c r="P21" t="n">
-        <v>2239.574437748683</v>
+        <v>2357.126603646087</v>
       </c>
       <c r="Q21" t="n">
-        <v>2490.891446435098</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S21" t="n">
-        <v>2405.228535940266</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T21" t="n">
-        <v>2211.094260761814</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U21" t="n">
-        <v>1983.002073174962</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V21" t="n">
-        <v>1747.849964943219</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W21" t="n">
-        <v>1493.612608215017</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X21" t="n">
-        <v>1285.761108009485</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y21" t="n">
-        <v>1078.000809244531</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1087.315231116727</v>
+        <v>1247.415015300949</v>
       </c>
       <c r="C22" t="n">
-        <v>918.37904818882</v>
+        <v>1247.415015300949</v>
       </c>
       <c r="D22" t="n">
-        <v>768.2624087764842</v>
+        <v>1247.415015300949</v>
       </c>
       <c r="E22" t="n">
-        <v>620.3493151940911</v>
+        <v>1099.501921718556</v>
       </c>
       <c r="F22" t="n">
-        <v>473.4593676961807</v>
+        <v>1099.501921718556</v>
       </c>
       <c r="G22" t="n">
-        <v>305.4463531364993</v>
+        <v>931.4889071588743</v>
       </c>
       <c r="H22" t="n">
-        <v>156.4714025375973</v>
+        <v>931.4889071588743</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870196</v>
+        <v>931.4889071588743</v>
       </c>
       <c r="J22" t="n">
-        <v>73.44728005477627</v>
+        <v>955.1183582849486</v>
       </c>
       <c r="K22" t="n">
-        <v>242.1145636490677</v>
+        <v>1123.78564187924</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394354</v>
+        <v>1395.148129369608</v>
       </c>
       <c r="M22" t="n">
-        <v>809.9798694642498</v>
+        <v>1691.650947694422</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.867129907538</v>
+        <v>1986.538208137711</v>
       </c>
       <c r="O22" t="n">
-        <v>1361.226948298602</v>
+        <v>2242.898026528775</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.06637823043</v>
+        <v>2438.737456460603</v>
       </c>
       <c r="Q22" t="n">
-        <v>1609.220368204926</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R22" t="n">
-        <v>1609.220368204926</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S22" t="n">
-        <v>1609.220368204926</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T22" t="n">
-        <v>1609.220368204926</v>
+        <v>2267.799525284914</v>
       </c>
       <c r="U22" t="n">
-        <v>1609.220368204926</v>
+        <v>1978.679739614136</v>
       </c>
       <c r="V22" t="n">
-        <v>1609.220368204926</v>
+        <v>1723.995251408249</v>
       </c>
       <c r="W22" t="n">
-        <v>1609.220368204926</v>
+        <v>1434.578081371288</v>
       </c>
       <c r="X22" t="n">
-        <v>1489.756275090497</v>
+        <v>1247.415015300949</v>
       </c>
       <c r="Y22" t="n">
-        <v>1268.963695946966</v>
+        <v>1247.415015300949</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1381.183680875921</v>
+        <v>2211.760289078249</v>
       </c>
       <c r="C23" t="n">
-        <v>1381.183680875921</v>
+        <v>1995.415189534486</v>
       </c>
       <c r="D23" t="n">
-        <v>1022.917982269171</v>
+        <v>1637.149490927736</v>
       </c>
       <c r="E23" t="n">
-        <v>637.1297296709267</v>
+        <v>1251.361238329491</v>
       </c>
       <c r="F23" t="n">
-        <v>226.1438248813192</v>
+        <v>840.3753335398837</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696726</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I23" t="n">
         <v>51.29057888696726</v>
@@ -5990,10 +5992,10 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K23" t="n">
-        <v>502.422997893213</v>
+        <v>502.4229978932127</v>
       </c>
       <c r="L23" t="n">
-        <v>846.5066693681792</v>
+        <v>846.506669368179</v>
       </c>
       <c r="M23" t="n">
         <v>1261.035489153923</v>
@@ -6014,25 +6016,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T23" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U23" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V23" t="n">
-        <v>2107.418094407115</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W23" t="n">
-        <v>1754.649439137001</v>
+        <v>2211.760289078249</v>
       </c>
       <c r="X23" t="n">
-        <v>1381.183680875921</v>
+        <v>2211.760289078249</v>
       </c>
       <c r="Y23" t="n">
-        <v>1381.183680875921</v>
+        <v>2211.760289078249</v>
       </c>
     </row>
     <row r="24">
@@ -6048,37 +6050,37 @@
         <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>127.7070010306079</v>
+        <v>110.7085524022813</v>
       </c>
       <c r="K24" t="n">
-        <v>307.4166064487833</v>
+        <v>290.4181578204567</v>
       </c>
       <c r="L24" t="n">
-        <v>595.3808896314458</v>
+        <v>578.3824410031193</v>
       </c>
       <c r="M24" t="n">
-        <v>1230.101803357666</v>
+        <v>1213.103354729339</v>
       </c>
       <c r="N24" t="n">
-        <v>1864.822717083885</v>
+        <v>1847.824268455559</v>
       </c>
       <c r="O24" t="n">
         <v>2189.508334797642</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>621.8220651523563</v>
+        <v>982.1344074660968</v>
       </c>
       <c r="C25" t="n">
-        <v>621.8220651523563</v>
+        <v>813.1982245381899</v>
       </c>
       <c r="D25" t="n">
-        <v>621.8220651523563</v>
+        <v>663.0815851258542</v>
       </c>
       <c r="E25" t="n">
-        <v>621.8220651523563</v>
+        <v>515.1684915434611</v>
       </c>
       <c r="F25" t="n">
-        <v>474.932117654446</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="G25" t="n">
-        <v>306.9191030947646</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="H25" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I25" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>74.92003001304158</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K25" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L25" t="n">
-        <v>514.9498010977007</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M25" t="n">
-        <v>811.4526194225152</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N25" t="n">
-        <v>1106.339879865803</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O25" t="n">
-        <v>1362.699698256867</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P25" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q25" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R25" t="n">
         <v>1506.915933070317</v>
       </c>
       <c r="S25" t="n">
-        <v>1309.824493440365</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="T25" t="n">
-        <v>1309.824493440365</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="U25" t="n">
-        <v>1309.824493440365</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="V25" t="n">
-        <v>1139.228786087334</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="W25" t="n">
-        <v>849.8116160503737</v>
+        <v>1430.916537507644</v>
       </c>
       <c r="X25" t="n">
-        <v>621.8220651523563</v>
+        <v>1202.926986609627</v>
       </c>
       <c r="Y25" t="n">
-        <v>621.8220651523563</v>
+        <v>982.1344074660968</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1414.32401404735</v>
+        <v>2191.063186087283</v>
       </c>
       <c r="C26" t="n">
-        <v>1045.361497106938</v>
+        <v>1995.415189534486</v>
       </c>
       <c r="D26" t="n">
-        <v>1045.361497106938</v>
+        <v>1637.149490927736</v>
       </c>
       <c r="E26" t="n">
-        <v>659.5732445086937</v>
+        <v>1251.361238329491</v>
       </c>
       <c r="F26" t="n">
-        <v>248.5873397190862</v>
+        <v>840.3753335398837</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696726</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I26" t="n">
         <v>51.29057888696726</v>
@@ -6227,13 +6229,13 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K26" t="n">
-        <v>430.2582499382138</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L26" t="n">
-        <v>774.34192141318</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M26" t="n">
-        <v>1188.870741198923</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N26" t="n">
         <v>1686.885626999171</v>
@@ -6269,7 +6271,7 @@
         <v>2191.063186087283</v>
       </c>
       <c r="Y26" t="n">
-        <v>1800.923854111471</v>
+        <v>2191.063186087283</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6305,19 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022812</v>
+        <v>110.7085524022813</v>
       </c>
       <c r="K27" t="n">
-        <v>290.4181578204566</v>
+        <v>290.4181578204567</v>
       </c>
       <c r="L27" t="n">
-        <v>578.3824410031191</v>
+        <v>595.3808896314454</v>
       </c>
       <c r="M27" t="n">
-        <v>1175.574854841118</v>
+        <v>1230.101803357665</v>
       </c>
       <c r="N27" t="n">
-        <v>1554.787421071423</v>
+        <v>1864.822717083885</v>
       </c>
       <c r="O27" t="n">
         <v>2189.508334797642</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>982.1344074660968</v>
+        <v>2042.623807260163</v>
       </c>
       <c r="C28" t="n">
-        <v>813.1982245381899</v>
+        <v>1873.687624332256</v>
       </c>
       <c r="D28" t="n">
-        <v>663.0815851258542</v>
+        <v>1723.570984919921</v>
       </c>
       <c r="E28" t="n">
-        <v>515.1684915434611</v>
+        <v>1575.657891337527</v>
       </c>
       <c r="F28" t="n">
-        <v>368.2785440455507</v>
+        <v>1428.767943839617</v>
       </c>
       <c r="G28" t="n">
-        <v>200.2655294858693</v>
+        <v>1260.754929279936</v>
       </c>
       <c r="H28" t="n">
-        <v>51.29057888696726</v>
+        <v>1111.779978681034</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696726</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="J28" t="n">
-        <v>74.92003001304158</v>
+        <v>1028.755856198213</v>
       </c>
       <c r="K28" t="n">
-        <v>243.5873136073331</v>
+        <v>1197.423139792504</v>
       </c>
       <c r="L28" t="n">
-        <v>514.9498010977007</v>
+        <v>1468.785627282872</v>
       </c>
       <c r="M28" t="n">
-        <v>811.4526194225152</v>
+        <v>1765.288445607687</v>
       </c>
       <c r="N28" t="n">
-        <v>1106.339879865803</v>
+        <v>2060.175706050975</v>
       </c>
       <c r="O28" t="n">
-        <v>1362.699698256867</v>
+        <v>2316.535524442039</v>
       </c>
       <c r="P28" t="n">
-        <v>1558.539128188696</v>
+        <v>2512.374954373867</v>
       </c>
       <c r="Q28" t="n">
-        <v>1610.693118163191</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R28" t="n">
-        <v>1610.693118163191</v>
+        <v>2460.751759255488</v>
       </c>
       <c r="S28" t="n">
-        <v>1610.693118163191</v>
+        <v>2460.751759255488</v>
       </c>
       <c r="T28" t="n">
-        <v>1610.693118163191</v>
+        <v>2460.751759255488</v>
       </c>
       <c r="U28" t="n">
-        <v>1610.693118163191</v>
+        <v>2460.751759255488</v>
       </c>
       <c r="V28" t="n">
-        <v>1356.008629957304</v>
+        <v>2460.751759255488</v>
       </c>
       <c r="W28" t="n">
-        <v>1356.008629957304</v>
+        <v>2460.751759255488</v>
       </c>
       <c r="X28" t="n">
-        <v>1356.008629957304</v>
+        <v>2445.064851233933</v>
       </c>
       <c r="Y28" t="n">
-        <v>1163.782872296337</v>
+        <v>2224.272272090403</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1712.246568219492</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="C29" t="n">
-        <v>1712.246568219492</v>
+        <v>1860.513726298997</v>
       </c>
       <c r="D29" t="n">
-        <v>1637.149490927736</v>
+        <v>1502.248027692247</v>
       </c>
       <c r="E29" t="n">
-        <v>1251.361238329491</v>
+        <v>1116.459775094003</v>
       </c>
       <c r="F29" t="n">
-        <v>840.3753335398837</v>
+        <v>705.4738703043952</v>
       </c>
       <c r="G29" t="n">
-        <v>424.6113948879072</v>
+        <v>289.7099316524187</v>
       </c>
       <c r="H29" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I29" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>254.8131514952477</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K29" t="n">
-        <v>502.422997893213</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L29" t="n">
-        <v>846.5066693681792</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M29" t="n">
         <v>1261.035489153923</v>
@@ -6491,22 +6493,22 @@
         <v>2438.480981750686</v>
       </c>
       <c r="T29" t="n">
-        <v>2438.480981750686</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U29" t="n">
-        <v>2438.480981750686</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="V29" t="n">
-        <v>2438.480981750686</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="W29" t="n">
-        <v>2085.712326480572</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="X29" t="n">
-        <v>1712.246568219492</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="Y29" t="n">
-        <v>1712.246568219492</v>
+        <v>2229.476243239409</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C30" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G30" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033209</v>
       </c>
       <c r="H30" t="n">
         <v>72.80815385915349</v>
@@ -6540,13 +6542,13 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>110.7085524022812</v>
+        <v>110.7085524022813</v>
       </c>
       <c r="K30" t="n">
-        <v>290.4181578204566</v>
+        <v>290.4181578204567</v>
       </c>
       <c r="L30" t="n">
-        <v>578.3824410031191</v>
+        <v>578.3824410031193</v>
       </c>
       <c r="M30" t="n">
         <v>1213.103354729339</v>
@@ -6555,13 +6557,13 @@
         <v>1847.824268455559</v>
       </c>
       <c r="O30" t="n">
-        <v>2211.919283004222</v>
+        <v>2189.508334797642</v>
       </c>
       <c r="P30" t="n">
-        <v>2453.17504976593</v>
+        <v>2430.764101559351</v>
       </c>
       <c r="Q30" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>982.1344074660968</v>
+        <v>517.2333487251202</v>
       </c>
       <c r="C31" t="n">
-        <v>813.1982245381899</v>
+        <v>348.2971657972133</v>
       </c>
       <c r="D31" t="n">
-        <v>663.0815851258542</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="E31" t="n">
-        <v>515.1684915434611</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="F31" t="n">
-        <v>368.2785440455507</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G31" t="n">
-        <v>200.2655294858693</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H31" t="n">
         <v>51.29057888696726</v>
@@ -6619,52 +6621,52 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304158</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K31" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
-        <v>514.9498010977007</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M31" t="n">
-        <v>811.4526194225152</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N31" t="n">
-        <v>1106.339879865803</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O31" t="n">
-        <v>1362.699698256867</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P31" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q31" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R31" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T31" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="U31" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="V31" t="n">
-        <v>1610.693118163191</v>
+        <v>1356.008629957305</v>
       </c>
       <c r="W31" t="n">
-        <v>1610.693118163191</v>
+        <v>1147.663943596907</v>
       </c>
       <c r="X31" t="n">
-        <v>1382.703567265174</v>
+        <v>919.6743926988901</v>
       </c>
       <c r="Y31" t="n">
-        <v>1163.782872296337</v>
+        <v>698.8818135553599</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1083.261126703779</v>
+        <v>1637.149490927736</v>
       </c>
       <c r="C32" t="n">
-        <v>714.2986097633673</v>
+        <v>1637.149490927736</v>
       </c>
       <c r="D32" t="n">
-        <v>356.0329111566168</v>
+        <v>1637.149490927736</v>
       </c>
       <c r="E32" t="n">
-        <v>51.29057888696726</v>
+        <v>1251.361238329491</v>
       </c>
       <c r="F32" t="n">
-        <v>51.29057888696726</v>
+        <v>840.3753335398837</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696726</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I32" t="n">
         <v>51.29057888696726</v>
@@ -6701,13 +6703,13 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K32" t="n">
-        <v>430.2582499382138</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L32" t="n">
-        <v>774.34192141318</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M32" t="n">
-        <v>1188.870741198923</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N32" t="n">
         <v>1614.720879044172</v>
@@ -6725,25 +6727,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2473.205783506014</v>
       </c>
       <c r="T32" t="n">
-        <v>2564.528944348363</v>
+        <v>2264.201044994737</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>2010.615249188815</v>
       </c>
       <c r="V32" t="n">
-        <v>2233.466057004792</v>
+        <v>2010.615249188815</v>
       </c>
       <c r="W32" t="n">
-        <v>2233.466057004792</v>
+        <v>2010.615249188815</v>
       </c>
       <c r="X32" t="n">
-        <v>1860.000298743712</v>
+        <v>1637.149490927736</v>
       </c>
       <c r="Y32" t="n">
-        <v>1469.860966767901</v>
+        <v>1637.149490927736</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549136</v>
       </c>
       <c r="C33" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737866</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125358</v>
+        <v>609.3883582125352</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070796</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339653</v>
+        <v>303.6163452339647</v>
       </c>
       <c r="G33" t="n">
-        <v>166.8832661033209</v>
+        <v>166.8832661033207</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915338</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I33" t="n">
-        <v>51.29057888696715</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>150.1179492371871</v>
+        <v>110.7085524022813</v>
       </c>
       <c r="K33" t="n">
-        <v>329.8275546553625</v>
+        <v>290.4181578204567</v>
       </c>
       <c r="L33" t="n">
-        <v>617.791837838025</v>
+        <v>578.3824410031193</v>
       </c>
       <c r="M33" t="n">
-        <v>1252.512751564245</v>
+        <v>1213.103354729339</v>
       </c>
       <c r="N33" t="n">
-        <v>1887.233665290465</v>
+        <v>1847.824268455559</v>
       </c>
       <c r="O33" t="n">
-        <v>2211.919283004222</v>
+        <v>2172.509886169316</v>
       </c>
       <c r="P33" t="n">
-        <v>2453.17504976593</v>
+        <v>2413.765652931025</v>
       </c>
       <c r="Q33" t="n">
         <v>2564.528944348363</v>
@@ -6807,7 +6809,7 @@
         <v>2428.218860870717</v>
       </c>
       <c r="T33" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692264</v>
       </c>
       <c r="U33" t="n">
         <v>2005.992398105413</v>
@@ -6816,7 +6818,7 @@
         <v>1770.84028987367</v>
       </c>
       <c r="W33" t="n">
-        <v>1516.602933145469</v>
+        <v>1516.602933145468</v>
       </c>
       <c r="X33" t="n">
         <v>1308.751432939936</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1088.787981074992</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="C34" t="n">
-        <v>919.8517981470852</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="D34" t="n">
-        <v>769.7351587347495</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="E34" t="n">
-        <v>621.8220651523563</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="F34" t="n">
-        <v>474.932117654446</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="G34" t="n">
-        <v>306.9191030947646</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="H34" t="n">
-        <v>157.9441524958626</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="I34" t="n">
-        <v>51.29057888696726</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304158</v>
+        <v>1028.755856198213</v>
       </c>
       <c r="K34" t="n">
-        <v>243.5873136073331</v>
+        <v>1197.423139792504</v>
       </c>
       <c r="L34" t="n">
-        <v>514.9498010977007</v>
+        <v>1468.785627282872</v>
       </c>
       <c r="M34" t="n">
-        <v>811.4526194225152</v>
+        <v>1765.288445607687</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.339879865803</v>
+        <v>2060.175706050975</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.699698256867</v>
+        <v>2316.535524442039</v>
       </c>
       <c r="P34" t="n">
-        <v>1558.539128188696</v>
+        <v>2512.374954373867</v>
       </c>
       <c r="Q34" t="n">
-        <v>1610.693118163191</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R34" t="n">
-        <v>1610.693118163191</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="S34" t="n">
-        <v>1610.693118163191</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T34" t="n">
-        <v>1610.693118163191</v>
+        <v>2341.437023198178</v>
       </c>
       <c r="U34" t="n">
-        <v>1610.693118163191</v>
+        <v>2052.3172375274</v>
       </c>
       <c r="V34" t="n">
-        <v>1610.693118163191</v>
+        <v>1797.632749321513</v>
       </c>
       <c r="W34" t="n">
-        <v>1610.693118163191</v>
+        <v>1508.215579284553</v>
       </c>
       <c r="X34" t="n">
-        <v>1491.229025048762</v>
+        <v>1280.226028386535</v>
       </c>
       <c r="Y34" t="n">
-        <v>1270.436445905232</v>
+        <v>1059.433449243005</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2237.30565062918</v>
+        <v>1989.584140515692</v>
       </c>
       <c r="C35" t="n">
-        <v>1868.343133688768</v>
+        <v>1620.621623575281</v>
       </c>
       <c r="D35" t="n">
-        <v>1510.077435082017</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E35" t="n">
-        <v>1124.289182483773</v>
+        <v>876.567672370286</v>
       </c>
       <c r="F35" t="n">
-        <v>713.3032776941657</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="G35" t="n">
-        <v>297.5393390421892</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819857</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K35" t="n">
-        <v>428.785499979951</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549173</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.397991240661</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085909</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317526</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S35" t="n">
-        <v>2490.891446435101</v>
+        <v>2376.183980579814</v>
       </c>
       <c r="T35" t="n">
-        <v>2490.891446435101</v>
+        <v>2376.183980579814</v>
       </c>
       <c r="U35" t="n">
-        <v>2237.30565062918</v>
+        <v>2376.183980579814</v>
       </c>
       <c r="V35" t="n">
-        <v>2237.30565062918</v>
+        <v>2376.183980579814</v>
       </c>
       <c r="W35" t="n">
-        <v>2237.30565062918</v>
+        <v>2376.183980579814</v>
       </c>
       <c r="X35" t="n">
-        <v>2237.30565062918</v>
+        <v>2376.183980579814</v>
       </c>
       <c r="Y35" t="n">
-        <v>2237.30565062918</v>
+        <v>2376.183980579814</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.138299241652</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C36" t="n">
-        <v>684.685269960525</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992738</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E36" t="n">
-        <v>376.5134052938183</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F36" t="n">
         <v>302.1435952757001</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4105161450558</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>71.33540390088825</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J36" t="n">
         <v>109.235802444016</v>
@@ -7020,46 +7022,46 @@
         <v>288.9454078621914</v>
       </c>
       <c r="L36" t="n">
-        <v>576.9096910448538</v>
+        <v>576.909691044854</v>
       </c>
       <c r="M36" t="n">
-        <v>1193.405324037541</v>
+        <v>932.3072952935255</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.185219170623</v>
+        <v>1499.37520389169</v>
       </c>
       <c r="O36" t="n">
-        <v>2115.87083688438</v>
+        <v>2115.870836884377</v>
       </c>
       <c r="P36" t="n">
-        <v>2357.126603646089</v>
+        <v>2357.126603646087</v>
       </c>
       <c r="Q36" t="n">
-        <v>2468.480498228522</v>
+        <v>2468.480498228519</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779003</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.354900192148</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232207</v>
+        <v>1442.965435232204</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026671</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.35363626172</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.81782892870202</v>
+        <v>551.7035091409472</v>
       </c>
       <c r="C37" t="n">
-        <v>49.81782892870202</v>
+        <v>382.7673262130403</v>
       </c>
       <c r="D37" t="n">
-        <v>49.81782892870202</v>
+        <v>382.7673262130403</v>
       </c>
       <c r="E37" t="n">
-        <v>49.81782892870202</v>
+        <v>234.8542326306472</v>
       </c>
       <c r="F37" t="n">
-        <v>49.81782892870202</v>
+        <v>87.96428513273682</v>
       </c>
       <c r="G37" t="n">
-        <v>49.81782892870202</v>
+        <v>87.96428513273682</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477634</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K37" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M37" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N37" t="n">
         <v>1104.867129907538</v>
@@ -7114,31 +7116,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q37" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R37" t="n">
         <v>1505.443183112052</v>
       </c>
       <c r="S37" t="n">
-        <v>1308.3517434821</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T37" t="n">
-        <v>1085.259822331916</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="U37" t="n">
-        <v>796.1400366611375</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="V37" t="n">
-        <v>541.4555484552507</v>
+        <v>1250.758694906165</v>
       </c>
       <c r="W37" t="n">
-        <v>252.0383784182901</v>
+        <v>961.3415248692042</v>
       </c>
       <c r="X37" t="n">
-        <v>49.81782892870202</v>
+        <v>733.3519739711869</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.81782892870202</v>
+        <v>733.3519739711869</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1396.223468854636</v>
+        <v>1139.209591481948</v>
       </c>
       <c r="C38" t="n">
-        <v>1204.857684923304</v>
+        <v>770.2470745415359</v>
       </c>
       <c r="D38" t="n">
-        <v>846.5919863165539</v>
+        <v>770.2470745415359</v>
       </c>
       <c r="E38" t="n">
-        <v>460.8037337183096</v>
+        <v>770.2470745415359</v>
       </c>
       <c r="F38" t="n">
-        <v>49.81782892870198</v>
+        <v>770.2470745415359</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870198</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549152</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N38" t="n">
         <v>1613.248129085907</v>
@@ -7193,31 +7195,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="T38" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="U38" t="n">
-        <v>2490.891446435099</v>
+        <v>2237.305650629177</v>
       </c>
       <c r="V38" t="n">
-        <v>2159.828559091528</v>
+        <v>1906.242763285606</v>
       </c>
       <c r="W38" t="n">
-        <v>2159.828559091528</v>
+        <v>1553.474108015492</v>
       </c>
       <c r="X38" t="n">
-        <v>1786.362800830448</v>
+        <v>1180.008349754412</v>
       </c>
       <c r="Y38" t="n">
-        <v>1396.223468854636</v>
+        <v>1139.209591481948</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C39" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D39" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E39" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F39" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G39" t="n">
-        <v>93.24576819005659</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H39" t="n">
-        <v>49.81782892870198</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J39" t="n">
         <v>109.235802444016</v>
       </c>
       <c r="K39" t="n">
-        <v>550.7659925046441</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L39" t="n">
-        <v>838.7302756873066</v>
+        <v>576.909691044854</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.127879935978</v>
+        <v>932.3072952935255</v>
       </c>
       <c r="N39" t="n">
-        <v>1573.340446166283</v>
+        <v>1311.51986152383</v>
       </c>
       <c r="O39" t="n">
-        <v>1898.02606388004</v>
+        <v>1636.205479237587</v>
       </c>
       <c r="P39" t="n">
         <v>2149.150088787596</v>
       </c>
       <c r="Q39" t="n">
-        <v>2468.48049822852</v>
+        <v>2468.480498228519</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S39" t="n">
         <v>2354.581362957453</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y39" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1822.096361848989</v>
+        <v>434.6881150902918</v>
       </c>
       <c r="C40" t="n">
-        <v>1653.160178921082</v>
+        <v>265.7519321623849</v>
       </c>
       <c r="D40" t="n">
-        <v>1503.043539508747</v>
+        <v>115.6352927500492</v>
       </c>
       <c r="E40" t="n">
-        <v>1355.130445926353</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="F40" t="n">
-        <v>1355.130445926353</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="G40" t="n">
-        <v>1187.117431366672</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H40" t="n">
-        <v>1038.14248076777</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I40" t="n">
-        <v>931.4889071588746</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J40" t="n">
-        <v>955.1183582849488</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K40" t="n">
-        <v>1123.78564187924</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L40" t="n">
-        <v>1395.148129369608</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M40" t="n">
-        <v>1691.650947694422</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N40" t="n">
-        <v>1986.538208137711</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O40" t="n">
-        <v>2242.898026528775</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P40" t="n">
-        <v>2438.737456460603</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q40" t="n">
-        <v>2490.891446435099</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R40" t="n">
-        <v>2490.891446435099</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S40" t="n">
-        <v>2490.891446435099</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.799525284914</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U40" t="n">
-        <v>2267.799525284914</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="V40" t="n">
-        <v>2267.799525284914</v>
+        <v>1354.53587999904</v>
       </c>
       <c r="W40" t="n">
-        <v>2267.799525284914</v>
+        <v>1065.118709962079</v>
       </c>
       <c r="X40" t="n">
-        <v>2224.537405822759</v>
+        <v>837.1291590640617</v>
       </c>
       <c r="Y40" t="n">
-        <v>2003.744826679229</v>
+        <v>616.3365799205316</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1573.820201863716</v>
+        <v>1635.67674096947</v>
       </c>
       <c r="C41" t="n">
-        <v>1204.857684923304</v>
+        <v>1635.67674096947</v>
       </c>
       <c r="D41" t="n">
-        <v>846.5919863165537</v>
+        <v>1635.67674096947</v>
       </c>
       <c r="E41" t="n">
-        <v>460.8037337183095</v>
+        <v>1249.888488371226</v>
       </c>
       <c r="F41" t="n">
-        <v>49.81782892870196</v>
+        <v>838.9025835816183</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870196</v>
+        <v>423.1386449296418</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870189</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819833</v>
+        <v>181.175653581979</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799443</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549107</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240654</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085903</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317519</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962844</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561742</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435095</v>
       </c>
       <c r="S41" t="n">
-        <v>2490.891446435098</v>
+        <v>2484.86711535079</v>
       </c>
       <c r="T41" t="n">
-        <v>2490.891446435098</v>
+        <v>2275.862376839513</v>
       </c>
       <c r="U41" t="n">
-        <v>2490.891446435098</v>
+        <v>2022.276581033592</v>
       </c>
       <c r="V41" t="n">
-        <v>2490.891446435098</v>
+        <v>2022.276581033592</v>
       </c>
       <c r="W41" t="n">
-        <v>2350.559373903649</v>
+        <v>2022.276581033592</v>
       </c>
       <c r="X41" t="n">
-        <v>2350.559373903649</v>
+        <v>2022.276581033592</v>
       </c>
       <c r="Y41" t="n">
-        <v>1960.420041927838</v>
+        <v>2022.276581033592</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416493</v>
+        <v>859.1382992416457</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605187</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992674</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938119</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473206969</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4105161450557</v>
+        <v>165.4105161450556</v>
       </c>
       <c r="H42" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088811</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870189</v>
       </c>
       <c r="J42" t="n">
         <v>109.2358024440159</v>
       </c>
       <c r="K42" t="n">
-        <v>288.9454078621912</v>
+        <v>440.0794156989544</v>
       </c>
       <c r="L42" t="n">
-        <v>905.4410408548781</v>
+        <v>1056.57504869164</v>
       </c>
       <c r="M42" t="n">
-        <v>1260.838645103549</v>
+        <v>1411.972652940312</v>
       </c>
       <c r="N42" t="n">
-        <v>1640.051211333854</v>
+        <v>1791.185219170617</v>
       </c>
       <c r="O42" t="n">
-        <v>1964.736829047611</v>
+        <v>2115.870836884374</v>
       </c>
       <c r="P42" t="n">
-        <v>2357.126603646087</v>
+        <v>2357.126603646083</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.480498228519</v>
+        <v>2468.480498228515</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435095</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957449</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087778996</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192148</v>
+        <v>1932.354900192145</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960402</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232204</v>
+        <v>1442.9654352322</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026671</v>
+        <v>1235.113935026668</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261717</v>
+        <v>1027.353636261714</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>738.249603719019</v>
+        <v>931.4889071588702</v>
       </c>
       <c r="C43" t="n">
-        <v>738.249603719019</v>
+        <v>931.4889071588702</v>
       </c>
       <c r="D43" t="n">
-        <v>620.3493151940911</v>
+        <v>931.4889071588702</v>
       </c>
       <c r="E43" t="n">
-        <v>620.3493151940911</v>
+        <v>931.4889071588702</v>
       </c>
       <c r="F43" t="n">
-        <v>473.4593676961807</v>
+        <v>931.4889071588702</v>
       </c>
       <c r="G43" t="n">
-        <v>305.4463531364993</v>
+        <v>931.4889071588702</v>
       </c>
       <c r="H43" t="n">
-        <v>156.4714025375973</v>
+        <v>931.4889071588702</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870196</v>
+        <v>931.4889071588702</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477627</v>
+        <v>955.1183582849445</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490677</v>
+        <v>1123.785641879236</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394354</v>
+        <v>1395.148129369604</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642498</v>
+        <v>1691.650947694418</v>
       </c>
       <c r="N43" t="n">
-        <v>1104.867129907538</v>
+        <v>1986.538208137707</v>
       </c>
       <c r="O43" t="n">
-        <v>1361.226948298602</v>
+        <v>2242.898026528771</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.06637823043</v>
+        <v>2438.737456460599</v>
       </c>
       <c r="Q43" t="n">
-        <v>1609.220368204926</v>
+        <v>2490.891446435095</v>
       </c>
       <c r="R43" t="n">
-        <v>1505.443183112051</v>
+        <v>2387.11426134222</v>
       </c>
       <c r="S43" t="n">
-        <v>1505.443183112051</v>
+        <v>2190.022821712269</v>
       </c>
       <c r="T43" t="n">
-        <v>1282.351261961867</v>
+        <v>1966.930900562084</v>
       </c>
       <c r="U43" t="n">
-        <v>1282.351261961867</v>
+        <v>1677.811114891306</v>
       </c>
       <c r="V43" t="n">
-        <v>1027.66677375598</v>
+        <v>1423.126626685419</v>
       </c>
       <c r="W43" t="n">
-        <v>738.249603719019</v>
+        <v>1133.709456648458</v>
       </c>
       <c r="X43" t="n">
-        <v>738.249603719019</v>
+        <v>931.4889071588702</v>
       </c>
       <c r="Y43" t="n">
-        <v>738.249603719019</v>
+        <v>931.4889071588702</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1625.474988503185</v>
+        <v>987.917860863967</v>
       </c>
       <c r="C44" t="n">
-        <v>1256.512471562773</v>
+        <v>618.9553439235553</v>
       </c>
       <c r="D44" t="n">
-        <v>898.2467729560231</v>
+        <v>618.9553439235553</v>
       </c>
       <c r="E44" t="n">
-        <v>512.4585203577788</v>
+        <v>233.1670913253111</v>
       </c>
       <c r="F44" t="n">
-        <v>101.4726155681712</v>
+        <v>49.81782892870189</v>
       </c>
       <c r="G44" t="n">
-        <v>101.4726155681712</v>
+        <v>49.81782892870189</v>
       </c>
       <c r="H44" t="n">
-        <v>101.4726155681712</v>
+        <v>49.81782892870189</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870189</v>
       </c>
       <c r="J44" t="n">
         <v>181.1756535819832</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549145</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O44" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435095</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435095</v>
       </c>
       <c r="T44" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435095</v>
       </c>
       <c r="U44" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435095</v>
       </c>
       <c r="V44" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435095</v>
       </c>
       <c r="W44" t="n">
-        <v>2012.074828567307</v>
+        <v>2138.12279116498</v>
       </c>
       <c r="X44" t="n">
-        <v>2012.074828567307</v>
+        <v>1764.6570329039</v>
       </c>
       <c r="Y44" t="n">
-        <v>2012.074828567307</v>
+        <v>1374.517700928089</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>909.7854722244628</v>
+        <v>859.1382992416457</v>
       </c>
       <c r="C45" t="n">
-        <v>735.3324429433358</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D45" t="n">
-        <v>586.3980332820845</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E45" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F45" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450556</v>
       </c>
       <c r="H45" t="n">
-        <v>49.81782892870196</v>
+        <v>71.33540390088811</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870189</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310207</v>
+        <v>109.2358024440159</v>
       </c>
       <c r="K45" t="n">
-        <v>583.04519885707</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L45" t="n">
-        <v>871.0094820397325</v>
+        <v>576.909691044854</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.407086288404</v>
+        <v>1174.689586177931</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.619652518709</v>
+        <v>1791.185219170617</v>
       </c>
       <c r="O45" t="n">
-        <v>1930.305270232466</v>
+        <v>2115.870836884374</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.561036994175</v>
+        <v>2357.126603646083</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.891446435098</v>
+        <v>2468.480498228515</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435095</v>
       </c>
       <c r="S45" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.581362957449</v>
       </c>
       <c r="T45" t="n">
-        <v>2211.094260761814</v>
+        <v>2160.447087778996</v>
       </c>
       <c r="U45" t="n">
-        <v>1983.002073174962</v>
+        <v>1932.354900192145</v>
       </c>
       <c r="V45" t="n">
-        <v>1747.849964943219</v>
+        <v>1697.202791960402</v>
       </c>
       <c r="W45" t="n">
-        <v>1493.612608215017</v>
+        <v>1442.9654352322</v>
       </c>
       <c r="X45" t="n">
-        <v>1285.761108009485</v>
+        <v>1235.113935026668</v>
       </c>
       <c r="Y45" t="n">
-        <v>1078.000809244531</v>
+        <v>1027.353636261714</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.81782892870196</v>
+        <v>1087.315231116727</v>
       </c>
       <c r="C46" t="n">
-        <v>49.81782892870196</v>
+        <v>918.3790481888199</v>
       </c>
       <c r="D46" t="n">
-        <v>49.81782892870196</v>
+        <v>768.2624087764841</v>
       </c>
       <c r="E46" t="n">
-        <v>49.81782892870196</v>
+        <v>620.349315194091</v>
       </c>
       <c r="F46" t="n">
-        <v>49.81782892870196</v>
+        <v>473.4593676961806</v>
       </c>
       <c r="G46" t="n">
-        <v>49.81782892870196</v>
+        <v>305.4463531364992</v>
       </c>
       <c r="H46" t="n">
-        <v>49.81782892870196</v>
+        <v>156.4714025375972</v>
       </c>
       <c r="I46" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870189</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477626</v>
+        <v>73.44728005477623</v>
       </c>
       <c r="K46" t="n">
         <v>242.1145636490677</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N46" t="n">
         <v>1104.867129907538</v>
@@ -7822,7 +7824,7 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q46" t="n">
         <v>1609.220368204926</v>
@@ -7831,25 +7833,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S46" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T46" t="n">
-        <v>1189.03700742479</v>
+        <v>1558.380865983927</v>
       </c>
       <c r="U46" t="n">
-        <v>1189.03700742479</v>
+        <v>1558.380865983927</v>
       </c>
       <c r="V46" t="n">
-        <v>934.3525192189032</v>
+        <v>1558.380865983927</v>
       </c>
       <c r="W46" t="n">
-        <v>644.9353491819427</v>
+        <v>1268.963695946966</v>
       </c>
       <c r="X46" t="n">
-        <v>416.9457982839253</v>
+        <v>1268.963695946966</v>
       </c>
       <c r="Y46" t="n">
-        <v>196.1532191403952</v>
+        <v>1268.963695946966</v>
       </c>
     </row>
   </sheetData>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>148.3421391932283</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>189.752871078647</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>294.7575911908381</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>274.4331745336366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>93.95418991649885</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3.732535704012207</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>263.7353825697124</v>
+        <v>263.7353825697127</v>
       </c>
       <c r="N18" t="n">
-        <v>239.6798654165475</v>
+        <v>239.6798654165478</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>3.732535704012406</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.88434839053382</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>63.6618357382379</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>239.6798654165475</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>294.7575911908383</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>141.3768829333158</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>72.89368480302943</v>
+        <v>72.89368480302903</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>17.1701501296229</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>282.1447570480287</v>
+        <v>282.1447570480286</v>
       </c>
       <c r="N24" t="n">
-        <v>258.0892398948638</v>
+        <v>258.0892398948637</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>17.17015012962224</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9884,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>72.89368480302943</v>
+        <v>72.89368480302898</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9957,16 +9959,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>17.1701501296223</v>
       </c>
       <c r="M27" t="n">
-        <v>244.237181403361</v>
+        <v>282.1447570480286</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>258.0892398948637</v>
       </c>
       <c r="O27" t="n">
-        <v>313.1669656691544</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.89368480302946</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>72.89368480302915</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10200,10 +10202,10 @@
         <v>282.1447570480286</v>
       </c>
       <c r="N30" t="n">
-        <v>258.0892398948638</v>
+        <v>258.0892398948637</v>
       </c>
       <c r="O30" t="n">
-        <v>39.80747155041007</v>
+        <v>17.17015012962224</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>72.89368480302932</v>
+        <v>72.89368480302875</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>39.80747155041006</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>282.1447570480287</v>
+        <v>282.1447570480286</v>
       </c>
       <c r="N33" t="n">
-        <v>258.0892398948638</v>
+        <v>258.0892398948637</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>39.80747155040928</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053382</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10671,13 +10673,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>263.7353825697131</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>220.7750796997752</v>
+        <v>189.7528710786466</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>294.7575911908382</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>9.967937521058047</v>
+        <v>274.4331745336359</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11139,10 +11141,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>152.6606139765284</v>
       </c>
       <c r="L42" t="n">
-        <v>331.8498482929539</v>
+        <v>331.8498482929528</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>152.6606139765318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-4.029967277690751e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>170.9794606140142</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>244.8305968529347</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>239.6798654165466</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256.0272166441998</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>72.48998770378483</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23352,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>71.44310047545001</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23397,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>71.4431004754482</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>179.5904862923127</v>
+        <v>116.9002152825765</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>313.6109896357003</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>345.9172983638386</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23580,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>50.14070125298392</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23589,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>50.14070125298476</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>21.30239922246436</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23703,22 @@
         <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2285878140705</v>
+        <v>34.66553334983985</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>107.4402032057515</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>117.0447564475762</v>
       </c>
       <c r="H17" t="n">
-        <v>245.7069150925827</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,16 +23791,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23823,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>71.44310047545</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23862,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>71.44310047544816</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>1.218206074074885</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>105.5870378728063</v>
@@ -23938,13 +23940,13 @@
         <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.3565515044942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>347.0582305709526</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>31.15241065004136</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24066,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>50.14070125298571</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>107.440203205752</v>
+        <v>40.41821997940085</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>151.0912432226825</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>238.5015857310483</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
         <v>206.9146911261644</v>
@@ -24263,13 +24265,13 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
         <v>220.8610019386828</v>
@@ -24421,16 +24423,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>83.24789304432733</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>211.2835967295449</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>171.5813751837384</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>216.282506041659</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>195.1205252336517</v>
@@ -24658,16 +24660,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>210.1796164476976</v>
       </c>
       <c r="Y28" t="n">
-        <v>28.28115326773656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>280.3369351018441</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>65.58349465345199</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.0499378478622</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
         <v>105.5870378728063</v>
@@ -24895,16 +24897,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>80.26175883979735</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.853165332945622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>80.23546112530875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>34.37755373777473</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>126.0680064527792</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,19 +25128,19 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>107.4402032057517</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3743588788966</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7874829717001</v>
+        <v>11.22709177496876</v>
       </c>
       <c r="T35" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25242,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>71.44310047544694</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>71.44310047544954</v>
       </c>
     </row>
     <row r="37">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>109.7202094509185</v>
       </c>
       <c r="I37" t="n">
         <v>105.5870378728063</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>25.51131139434503</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>175.8207656789888</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,19 +25447,19 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>345.8471679663137</v>
       </c>
     </row>
     <row r="39">
@@ -25485,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>50.14070125298476</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>71.44310047544951</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>81.27467346343541</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>182.8801571215035</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>118.8233951982389</v>
       </c>
       <c r="T41" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>210.3122169112787</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>71.44310047544963</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25719,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>71.44310047545309</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>31.89418737853377</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>25.51131139434511</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25868,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>225.3602759690683</v>
       </c>
       <c r="G44" t="n">
         <v>411.6062992654567</v>
@@ -25883,7 +25885,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>16.83071517660712</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
         <v>206.9146911261644</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>71.44310047545324</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25962,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25995,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>50.14070125298568</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.95994387236098</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>170.5298947398935</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>650212.2493578201</v>
+        <v>650212.2493578203</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>650212.24935782</v>
+        <v>650212.2493578201</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>662698.9966084636</v>
+        <v>662698.9966084637</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>662698.9966084636</v>
+        <v>662698.9966084637</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>662698.9966084638</v>
+        <v>662698.9966084637</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>650212.2493578204</v>
+        <v>650212.24935782</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>650212.24935782</v>
+        <v>650212.2493578194</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>650212.24935782</v>
+        <v>650212.2493578192</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>573493.4371019268</v>
+      </c>
+      <c r="C2" t="n">
         <v>573493.437101927</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>573493.4371019269</v>
       </c>
-      <c r="D2" t="n">
-        <v>573493.437101927</v>
-      </c>
       <c r="E2" t="n">
-        <v>421649.7197352586</v>
+        <v>421649.7197352588</v>
       </c>
       <c r="F2" t="n">
         <v>421649.7197352587</v>
@@ -26329,19 +26331,19 @@
         <v>421649.7197352587</v>
       </c>
       <c r="H2" t="n">
-        <v>421649.7197352585</v>
+        <v>421649.7197352587</v>
       </c>
       <c r="I2" t="n">
-        <v>427750.9605158622</v>
+        <v>427750.9605158619</v>
       </c>
       <c r="J2" t="n">
-        <v>427750.960515862</v>
+        <v>427750.9605158621</v>
       </c>
       <c r="K2" t="n">
+        <v>427750.9605158618</v>
+      </c>
+      <c r="L2" t="n">
         <v>427750.9605158619</v>
-      </c>
-      <c r="L2" t="n">
-        <v>427750.9605158621</v>
       </c>
       <c r="M2" t="n">
         <v>421649.7197352587</v>
@@ -26350,10 +26352,10 @@
         <v>421649.7197352586</v>
       </c>
       <c r="O2" t="n">
-        <v>421649.7197352587</v>
+        <v>421649.7197352585</v>
       </c>
       <c r="P2" t="n">
-        <v>421649.7197352586</v>
+        <v>421649.7197352583</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761238</v>
+        <v>924651.579376124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.343600499443711e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648348</v>
+        <v>4895.439270648287</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468586</v>
+        <v>150597.3382468589</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>425523.1391661035</v>
+        <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
+        <v>18245.60406141439</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18245.60406141439</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18245.60406141438</v>
+      </c>
+      <c r="H4" t="n">
         <v>18245.60406141436</v>
       </c>
-      <c r="F4" t="n">
-        <v>18245.60406141438</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18245.60406141437</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18245.60406141437</v>
-      </c>
       <c r="I4" t="n">
-        <v>21593.82968547193</v>
+        <v>21593.8296854719</v>
       </c>
       <c r="J4" t="n">
-        <v>21593.82968547193</v>
+        <v>21593.82968547191</v>
       </c>
       <c r="K4" t="n">
-        <v>21593.82968547193</v>
+        <v>21593.82968547191</v>
       </c>
       <c r="L4" t="n">
-        <v>21593.82968547193</v>
+        <v>21593.8296854719</v>
       </c>
       <c r="M4" t="n">
-        <v>18245.60406141449</v>
+        <v>18245.60406141436</v>
       </c>
       <c r="N4" t="n">
-        <v>18245.60406141438</v>
+        <v>18245.60406141434</v>
       </c>
       <c r="O4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.6040614143</v>
       </c>
       <c r="P4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.60406141417</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="F5" t="n">
+        <v>57906.41050425674</v>
+      </c>
+      <c r="G5" t="n">
+        <v>57906.41050425674</v>
+      </c>
+      <c r="H5" t="n">
         <v>57906.41050425672</v>
-      </c>
-      <c r="G5" t="n">
-        <v>57906.41050425671</v>
-      </c>
-      <c r="H5" t="n">
-        <v>57906.41050425671</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26500,16 +26502,16 @@
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="N5" t="n">
         <v>57906.41050425672</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425666</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425666</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114342.6979358235</v>
+        <v>114342.6979358233</v>
       </c>
       <c r="C6" t="n">
         <v>114342.6979358234</v>
       </c>
       <c r="D6" t="n">
-        <v>114342.6979358235</v>
+        <v>114342.6979358234</v>
       </c>
       <c r="E6" t="n">
-        <v>-579153.8742065363</v>
+        <v>-579153.8742065362</v>
       </c>
       <c r="F6" t="n">
         <v>345497.7051695876</v>
       </c>
       <c r="G6" t="n">
+        <v>345497.7051695873</v>
+      </c>
+      <c r="H6" t="n">
         <v>345497.7051695876</v>
       </c>
-      <c r="H6" t="n">
-        <v>345497.7051695874</v>
-      </c>
       <c r="I6" t="n">
-        <v>342235.9910872036</v>
+        <v>342235.9910872034</v>
       </c>
       <c r="J6" t="n">
         <v>347131.4303578518</v>
@@ -26549,16 +26551,16 @@
         <v>347131.4303578516</v>
       </c>
       <c r="L6" t="n">
-        <v>347131.4303578518</v>
+        <v>347131.4303578517</v>
       </c>
       <c r="M6" t="n">
-        <v>194900.3669227289</v>
+        <v>194900.3669227288</v>
       </c>
       <c r="N6" t="n">
+        <v>345497.7051695876</v>
+      </c>
+      <c r="O6" t="n">
         <v>345497.7051695875</v>
-      </c>
-      <c r="O6" t="n">
-        <v>345497.7051695876</v>
       </c>
       <c r="P6" t="n">
         <v>345497.7051695875</v>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="G3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074873</v>
       </c>
     </row>
     <row r="4">
@@ -26796,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="F4" t="n">
+        <v>622.7228616087749</v>
+      </c>
+      <c r="G4" t="n">
+        <v>622.7228616087749</v>
+      </c>
+      <c r="H4" t="n">
         <v>622.7228616087747</v>
-      </c>
-      <c r="G4" t="n">
-        <v>622.7228616087745</v>
-      </c>
-      <c r="H4" t="n">
-        <v>622.7228616087745</v>
       </c>
       <c r="I4" t="n">
         <v>641.1322360870907</v>
@@ -26820,16 +26822,16 @@
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087752</v>
+        <v>622.7228616087746</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087746</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087746</v>
+        <v>622.7228616087737</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087737</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087746</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>8.550633925401647e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831629</v>
+        <v>18.40937447831607</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304578</v>
+        <v>604.3134871304587</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087746</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>8.550633925401647e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31756,28 +31758,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N11" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
         <v>399.1737460349519</v>
@@ -31792,7 +31794,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
         <v>19.10108311477063</v>
@@ -31838,19 +31840,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J12" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K12" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
         <v>470.5615148623808</v>
@@ -31859,16 +31861,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R12" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S12" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31929,7 +31931,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O13" t="n">
         <v>234.3641835920855</v>
@@ -31941,16 +31943,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,28 +31995,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I14" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L14" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N14" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q14" t="n">
         <v>399.1737460349519</v>
@@ -32029,7 +32031,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
         <v>19.10108311477063</v>
@@ -32075,19 +32077,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J15" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L15" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O15" t="n">
         <v>470.5615148623808</v>
@@ -32096,16 +32098,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R15" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U15" t="n">
         <v>0.1301163699916256</v>
@@ -32166,7 +32168,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N16" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
         <v>234.3641835920855</v>
@@ -32178,16 +32180,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S16" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,28 +32232,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I17" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J17" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L17" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M17" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N17" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O17" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q17" t="n">
         <v>399.1737460349519</v>
@@ -32266,7 +32268,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H18" t="n">
         <v>19.10108311477063</v>
@@ -32312,19 +32314,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J18" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K18" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L18" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O18" t="n">
         <v>470.5615148623808</v>
@@ -32333,16 +32335,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q18" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R18" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S18" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T18" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U18" t="n">
         <v>0.1301163699916256</v>
@@ -32403,7 +32405,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N19" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O19" t="n">
         <v>234.3641835920855</v>
@@ -32415,16 +32417,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S19" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T19" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,28 +32469,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I20" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J20" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L20" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M20" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N20" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O20" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q20" t="n">
         <v>399.1737460349519</v>
@@ -32503,7 +32505,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H21" t="n">
         <v>19.10108311477063</v>
@@ -32549,19 +32551,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J21" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K21" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L21" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O21" t="n">
         <v>470.5615148623808</v>
@@ -32570,16 +32572,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R21" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S21" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T21" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U21" t="n">
         <v>0.1301163699916256</v>
@@ -32640,7 +32642,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N22" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O22" t="n">
         <v>234.3641835920855</v>
@@ -32652,16 +32654,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S22" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T22" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,28 +32706,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I23" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J23" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L23" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M23" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N23" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O23" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q23" t="n">
         <v>399.1737460349519</v>
@@ -32740,7 +32742,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H24" t="n">
         <v>19.10108311477063</v>
@@ -32786,19 +32788,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J24" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K24" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L24" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O24" t="n">
         <v>470.5615148623808</v>
@@ -32807,16 +32809,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q24" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R24" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S24" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T24" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U24" t="n">
         <v>0.1301163699916256</v>
@@ -32877,7 +32879,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N25" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O25" t="n">
         <v>234.3641835920855</v>
@@ -32889,16 +32891,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S25" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T25" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,28 +32943,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I26" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J26" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L26" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M26" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N26" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O26" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q26" t="n">
         <v>399.1737460349519</v>
@@ -32977,7 +32979,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H27" t="n">
         <v>19.10108311477063</v>
@@ -33023,19 +33025,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J27" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K27" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L27" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O27" t="n">
         <v>470.5615148623808</v>
@@ -33044,16 +33046,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q27" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R27" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S27" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T27" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U27" t="n">
         <v>0.1301163699916256</v>
@@ -33114,7 +33116,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N28" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O28" t="n">
         <v>234.3641835920855</v>
@@ -33126,16 +33128,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S28" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T28" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,28 +33180,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I29" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J29" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L29" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M29" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N29" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O29" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q29" t="n">
         <v>399.1737460349519</v>
@@ -33214,7 +33216,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H30" t="n">
         <v>19.10108311477063</v>
@@ -33260,19 +33262,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J30" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K30" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L30" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O30" t="n">
         <v>470.5615148623808</v>
@@ -33281,16 +33283,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q30" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R30" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S30" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U30" t="n">
         <v>0.1301163699916256</v>
@@ -33351,7 +33353,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N31" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O31" t="n">
         <v>234.3641835920855</v>
@@ -33363,16 +33365,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S31" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,28 +33417,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I32" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J32" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L32" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M32" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N32" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O32" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q32" t="n">
         <v>399.1737460349519</v>
@@ -33451,7 +33453,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H33" t="n">
         <v>19.10108311477063</v>
@@ -33497,19 +33499,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J33" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K33" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L33" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O33" t="n">
         <v>470.5615148623808</v>
@@ -33518,16 +33520,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q33" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R33" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S33" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U33" t="n">
         <v>0.1301163699916256</v>
@@ -33588,7 +33590,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N34" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O34" t="n">
         <v>234.3641835920855</v>
@@ -33600,16 +33602,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S34" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,28 +33654,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J35" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L35" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M35" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N35" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q35" t="n">
         <v>399.1737460349519</v>
@@ -33688,7 +33690,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H36" t="n">
         <v>19.10108311477063</v>
@@ -33734,19 +33736,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J36" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K36" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O36" t="n">
         <v>470.5615148623808</v>
@@ -33755,16 +33757,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R36" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S36" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U36" t="n">
         <v>0.1301163699916256</v>
@@ -33825,7 +33827,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N37" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O37" t="n">
         <v>234.3641835920855</v>
@@ -33837,16 +33839,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S37" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,28 +33891,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J38" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L38" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M38" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N38" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q38" t="n">
         <v>399.1737460349519</v>
@@ -33925,7 +33927,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H39" t="n">
         <v>19.10108311477063</v>
@@ -33971,19 +33973,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J39" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K39" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O39" t="n">
         <v>470.5615148623808</v>
@@ -33992,16 +33994,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R39" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S39" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U39" t="n">
         <v>0.1301163699916256</v>
@@ -34062,7 +34064,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N40" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O40" t="n">
         <v>234.3641835920855</v>
@@ -34074,16 +34076,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S40" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I41" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936328</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L41" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M41" t="n">
-        <v>649.0622128088318</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404913</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R41" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T41" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H42" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I42" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J42" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L42" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R42" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T42" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U42" t="n">
         <v>0.1301163699916256</v>
@@ -34299,7 +34301,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N43" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O43" t="n">
         <v>234.3641835920855</v>
@@ -34308,19 +34310,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598668</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I44" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M44" t="n">
-        <v>649.0622128088318</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R44" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S44" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T44" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H45" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J45" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K45" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L45" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R45" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T45" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U45" t="n">
         <v>0.1301163699916256</v>
@@ -34536,7 +34538,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N46" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O46" t="n">
         <v>234.3641835920855</v>
@@ -34545,19 +34547,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T46" t="n">
-        <v>7.084587489598668</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N11" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>181.5248539577529</v>
+        <v>329.8669931509812</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>548.7403501177091</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N12" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O12" t="n">
-        <v>622.7228616087745</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
-        <v>22.637321420787</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L13" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M13" t="n">
         <v>299.4977962876914</v>
@@ -35580,13 +35582,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N14" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O14" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q14" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K15" t="n">
-        <v>181.5248539577529</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N15" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P15" t="n">
-        <v>518.1258682323327</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.5559691322456</v>
+        <v>206.4328713128954</v>
       </c>
       <c r="R15" t="n">
-        <v>22.637321420787</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L16" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
         <v>299.4977962876914</v>
@@ -35817,13 +35819,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O16" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K17" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L17" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M17" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N17" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O17" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P17" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q17" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.01815506597373</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K18" t="n">
-        <v>181.5248539577529</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L18" t="n">
-        <v>294.6055490198329</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M18" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="N18" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P18" t="n">
-        <v>243.692693698696</v>
+        <v>247.4252294027085</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.4786813963965</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L19" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M19" t="n">
         <v>299.4977962876914</v>
@@ -36054,13 +36056,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O19" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P19" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K20" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L20" t="n">
-        <v>347.5592641161268</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N20" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O20" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P20" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q20" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>181.5248539577529</v>
+        <v>245.1866896959909</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N21" t="n">
-        <v>622.7228616087745</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179363</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="P21" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
-        <v>253.8555643297123</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L22" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M22" t="n">
         <v>299.4977962876914</v>
@@ -36291,13 +36293,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O22" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P22" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K23" t="n">
-        <v>323.0046407605701</v>
+        <v>323.0046407605698</v>
       </c>
       <c r="L23" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N23" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O23" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P23" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q23" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R23" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>77.18830519559663</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K24" t="n">
-        <v>181.5248539577529</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M24" t="n">
         <v>641.1322360870907</v>
@@ -36449,16 +36451,16 @@
         <v>641.1322360870907</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179363</v>
+        <v>345.1354205475586</v>
       </c>
       <c r="P24" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.4786813963965</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R24" t="n">
-        <v>22.637321420787</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L25" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M25" t="n">
         <v>299.4977962876914</v>
@@ -36528,13 +36530,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O25" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P25" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K26" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N26" t="n">
-        <v>503.0453391921691</v>
+        <v>503.0453391921686</v>
       </c>
       <c r="O26" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P26" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q26" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597373</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K27" t="n">
-        <v>181.5248539577529</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L27" t="n">
-        <v>290.8730133158207</v>
+        <v>308.0431634454431</v>
       </c>
       <c r="M27" t="n">
-        <v>603.2246604424231</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="N27" t="n">
-        <v>383.042996192227</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="O27" t="n">
-        <v>641.1322360870907</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P27" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963965</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R27" t="n">
-        <v>22.637321420787</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L28" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M28" t="n">
         <v>299.4977962876914</v>
@@ -36765,13 +36767,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O28" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P28" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>205.5783561699803</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K29" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M29" t="n">
-        <v>418.7159795815592</v>
+        <v>491.6096643845884</v>
       </c>
       <c r="N29" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O29" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P29" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q29" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.01815506597373</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K30" t="n">
-        <v>181.5248539577529</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M30" t="n">
         <v>641.1322360870907</v>
@@ -36923,16 +36925,16 @@
         <v>641.1322360870907</v>
       </c>
       <c r="O30" t="n">
-        <v>367.7727419683464</v>
+        <v>345.1354205475586</v>
       </c>
       <c r="P30" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4786813963965</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L31" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M31" t="n">
         <v>299.4977962876914</v>
@@ -37002,13 +37004,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O31" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P31" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K32" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N32" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O32" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P32" t="n">
-        <v>373.2131298993172</v>
+        <v>373.2131298993168</v>
       </c>
       <c r="Q32" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>99.82562661638379</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K33" t="n">
-        <v>181.5248539577529</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M33" t="n">
         <v>641.1322360870907</v>
@@ -37160,13 +37162,13 @@
         <v>641.1322360870907</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P33" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.4786813963965</v>
+        <v>152.2861529468058</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L34" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M34" t="n">
         <v>299.4977962876914</v>
@@ -37239,13 +37241,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O34" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P34" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.6846713669532</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N35" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P35" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q35" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.01815506597373</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K36" t="n">
-        <v>181.5248539577529</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M36" t="n">
-        <v>622.7228616087752</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N36" t="n">
-        <v>603.8180758920022</v>
+        <v>572.7958672708737</v>
       </c>
       <c r="O36" t="n">
-        <v>327.9652704179363</v>
+        <v>622.7228616087746</v>
       </c>
       <c r="P36" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.4786813963965</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R36" t="n">
-        <v>22.637321420787</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L37" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M37" t="n">
         <v>299.4977962876914</v>
@@ -37476,13 +37478,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O37" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P37" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N38" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P38" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605016</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.01815506597373</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K39" t="n">
-        <v>445.9900909703315</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N39" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P39" t="n">
-        <v>253.6606312197541</v>
+        <v>518.125868232332</v>
       </c>
       <c r="Q39" t="n">
-        <v>322.5559691322456</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R39" t="n">
-        <v>22.637321420787</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L40" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M40" t="n">
         <v>299.4977962876914</v>
@@ -37713,13 +37715,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O40" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P40" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669465</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O41" t="n">
-        <v>392.7100487188046</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P41" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.0181550659737</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K42" t="n">
-        <v>181.5248539577528</v>
+        <v>334.1854679342813</v>
       </c>
       <c r="L42" t="n">
-        <v>622.7228616087746</v>
+        <v>622.7228616087737</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N42" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P42" t="n">
-        <v>396.3533076752278</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.4786813963965</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078699</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K43" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L43" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M43" t="n">
         <v>299.4977962876914</v>
@@ -37950,13 +37952,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O43" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P43" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P44" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722054</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063825</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K45" t="n">
-        <v>352.504314571767</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390621</v>
+        <v>603.8180758919968</v>
       </c>
       <c r="N45" t="n">
-        <v>383.042996192227</v>
+        <v>622.7228616087737</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P45" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q45" t="n">
-        <v>322.5559691322455</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K46" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L46" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M46" t="n">
         <v>299.4977962876914</v>
@@ -38187,13 +38189,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O46" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P46" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1572260.745786023</v>
+        <v>1599726.089751025</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8393173.471952604</v>
+        <v>8393173.471952606</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>157.6017571038933</v>
       </c>
       <c r="G11" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>75.61804178696745</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.0499378478622</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>97.30436431165478</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1466,10 +1466,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172582</v>
+        <v>21.69126064627758</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>77.22810184760127</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>106.0157426671689</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
         <v>220.8610019386828</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>362.6690534808171</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>9.411015310691404</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>42.99365986874283</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8112657109832</v>
+        <v>154.3681652355363</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>193.9482552530902</v>
       </c>
       <c r="U16" t="n">
         <v>286.2285878140705</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.0217614291472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>233.3733931477506</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.6062992654567</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>9.5783313042198</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
-        <v>93.13436112172582</v>
+        <v>42.99365986874283</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>63.50388216742162</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T18" t="n">
         <v>192.192932426668</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>26.32985609156145</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>105.1018059826258</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>77.54728525390102</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>22.73764153783083</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.09008317442006</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2171,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>73.6261119179365</v>
       </c>
       <c r="G21" t="n">
         <v>135.3657483393379</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>35.5414196468923</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.40259319935374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>63.64322979703957</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>181.4993946796076</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.9240105424022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>35.21177753365507</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>234.6762627964445</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.6062992654567</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>249.8529458575957</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3657483393378</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H27" t="n">
         <v>93.13436112172582</v>
@@ -2687,7 +2687,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T27" t="n">
-        <v>192.192932426668</v>
+        <v>192.1929324266687</v>
       </c>
       <c r="U27" t="n">
         <v>225.8112657109832</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>24.09047082732178</v>
       </c>
       <c r="F28" t="n">
-        <v>134.5294263798745</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>319.2955475612491</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>155.4056393169141</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.76397372915863</v>
+        <v>68.35616402512562</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,10 +3046,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
-        <v>24.20290275764848</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>117.034537722499</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>142.8930670100667</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>105.1018059826256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2285878140705</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>41.82012550499457</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>87.64685169171713</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>63.50388216742162</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T36" t="n">
         <v>192.192932426668</v>
@@ -3404,7 +3404,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>161.357486673978</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>47.7618654560258</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.3328844140846</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>168.9664037341201</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>31.60512251954395</v>
       </c>
       <c r="T38" t="n">
-        <v>170.1767147353168</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>42.9936598687424</v>
+        <v>21.69126064627761</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>55.52364571259627</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
         <v>286.2285878140705</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>98.61682053932321</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>206.5384901520208</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
-        <v>206.1762453043823</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>42.99365986874195</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T42" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512199</v>
       </c>
       <c r="U42" t="n">
         <v>225.8112657109832</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>55.11925163265911</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>176.9199705178115</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>26.23580960547318</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>197.8527361621493</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>32.95152289606501</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
-        <v>98.55730671850236</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1951.919051727025</v>
+        <v>1737.791929770422</v>
       </c>
       <c r="C11" t="n">
-        <v>1582.956534786613</v>
+        <v>1368.82941283001</v>
       </c>
       <c r="D11" t="n">
-        <v>1224.690836179863</v>
+        <v>1010.563714223259</v>
       </c>
       <c r="E11" t="n">
-        <v>838.9025835816183</v>
+        <v>624.7754616250152</v>
       </c>
       <c r="F11" t="n">
-        <v>838.9025835816183</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G11" t="n">
-        <v>423.1386449296418</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I11" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L11" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549159</v>
       </c>
       <c r="M11" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P11" t="n">
         <v>2299.34732796285</v>
@@ -5068,25 +5068,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S11" t="n">
-        <v>2414.509586044223</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T11" t="n">
-        <v>2205.504847532946</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U11" t="n">
-        <v>1951.919051727025</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="V11" t="n">
-        <v>1951.919051727025</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="W11" t="n">
-        <v>1951.919051727025</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="X11" t="n">
-        <v>1951.919051727025</v>
+        <v>1737.791929770422</v>
       </c>
       <c r="Y11" t="n">
-        <v>1951.919051727025</v>
+        <v>1737.791929770422</v>
       </c>
     </row>
     <row r="12">
@@ -5102,40 +5102,40 @@
         <v>684.6852699605237</v>
       </c>
       <c r="D12" t="n">
-        <v>586.3980332820845</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E12" t="n">
-        <v>427.1605782766289</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F12" t="n">
-        <v>280.6260203035139</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G12" t="n">
-        <v>143.8929411728695</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H12" t="n">
-        <v>49.81782892870199</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I12" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
-        <v>141.5150087964425</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K12" t="n">
-        <v>583.0451988570708</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L12" t="n">
-        <v>871.0094820397335</v>
+        <v>576.9096910448541</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.407086288405</v>
+        <v>932.3072952935256</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.61965251871</v>
+        <v>1311.519861523831</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.305270232467</v>
+        <v>1636.205479237587</v>
       </c>
       <c r="P12" t="n">
         <v>2171.561036994176</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>217.8308434883834</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="C13" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D13" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E13" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F13" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G13" t="n">
         <v>49.81782892870199</v>
@@ -5199,22 +5199,22 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N13" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O13" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
         <v>1557.066378230431</v>
@@ -5226,25 +5226,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S13" t="n">
-        <v>1502.133759450211</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T13" t="n">
-        <v>1279.041838300026</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U13" t="n">
-        <v>989.9220526292482</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V13" t="n">
-        <v>735.2375644233614</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="W13" t="n">
-        <v>445.8203943864007</v>
+        <v>355.8155635111651</v>
       </c>
       <c r="X13" t="n">
-        <v>217.8308434883834</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.8308434883834</v>
+        <v>127.8260126131477</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1578.598235726085</v>
+        <v>1571.190062176655</v>
       </c>
       <c r="C14" t="n">
-        <v>1209.635718785673</v>
+        <v>1571.190062176655</v>
       </c>
       <c r="D14" t="n">
-        <v>851.3700201789227</v>
+        <v>1212.924363569904</v>
       </c>
       <c r="E14" t="n">
-        <v>465.5817675806785</v>
+        <v>827.1361109716602</v>
       </c>
       <c r="F14" t="n">
-        <v>465.5817675806785</v>
+        <v>416.1502061820526</v>
       </c>
       <c r="G14" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819839</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799494</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549159</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M14" t="n">
         <v>1187.397991240659</v>
@@ -5308,22 +5308,22 @@
         <v>2364.843483837424</v>
       </c>
       <c r="T14" t="n">
-        <v>2364.843483837424</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="U14" t="n">
-        <v>2364.843483837424</v>
+        <v>1902.252949520226</v>
       </c>
       <c r="V14" t="n">
-        <v>2364.843483837424</v>
+        <v>1571.190062176655</v>
       </c>
       <c r="W14" t="n">
-        <v>2355.337407766018</v>
+        <v>1571.190062176655</v>
       </c>
       <c r="X14" t="n">
-        <v>2355.337407766018</v>
+        <v>1571.190062176655</v>
       </c>
       <c r="Y14" t="n">
-        <v>1965.198075790207</v>
+        <v>1571.190062176655</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416516</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605246</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992733</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E15" t="n">
-        <v>376.5134052938178</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F15" t="n">
-        <v>229.9788473207028</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G15" t="n">
-        <v>93.24576819005841</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>49.81782892870201</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="J15" t="n">
-        <v>141.5150087964434</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K15" t="n">
-        <v>583.0451988570717</v>
+        <v>560.634250650493</v>
       </c>
       <c r="L15" t="n">
-        <v>871.0094820397344</v>
+        <v>848.5985338331557</v>
       </c>
       <c r="M15" t="n">
-        <v>1226.407086288406</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N15" t="n">
-        <v>1605.619652518711</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O15" t="n">
-        <v>1930.305270232468</v>
+        <v>1907.89432202589</v>
       </c>
       <c r="P15" t="n">
-        <v>2171.561036994177</v>
+        <v>2149.150088787599</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.480498228522</v>
       </c>
       <c r="R15" t="n">
         <v>2490.891446435101</v>
@@ -5387,22 +5387,22 @@
         <v>2354.581362957455</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779003</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192151</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960408</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W15" t="n">
-        <v>1442.965435232206</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026674</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.35363626172</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>346.8244158389481</v>
+        <v>347.8475619234309</v>
       </c>
       <c r="C16" t="n">
-        <v>346.8244158389481</v>
+        <v>347.8475619234309</v>
       </c>
       <c r="D16" t="n">
-        <v>196.7077764266124</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="E16" t="n">
-        <v>196.7077764266124</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="F16" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="H16" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477639</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490679</v>
@@ -5460,28 +5460,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S16" t="n">
-        <v>1609.220368204927</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T16" t="n">
-        <v>1386.128447054743</v>
+        <v>1112.444414943626</v>
       </c>
       <c r="U16" t="n">
-        <v>1097.008661383964</v>
+        <v>823.3246292728478</v>
       </c>
       <c r="V16" t="n">
-        <v>842.3241731780776</v>
+        <v>568.640141066961</v>
       </c>
       <c r="W16" t="n">
-        <v>552.907003141117</v>
+        <v>568.640141066961</v>
       </c>
       <c r="X16" t="n">
-        <v>552.907003141117</v>
+        <v>568.640141066961</v>
       </c>
       <c r="Y16" t="n">
-        <v>346.8244158389481</v>
+        <v>347.8475619234309</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1087.100720328166</v>
+        <v>1331.011434008613</v>
       </c>
       <c r="C17" t="n">
-        <v>1087.100720328166</v>
+        <v>1331.011434008613</v>
       </c>
       <c r="D17" t="n">
-        <v>1087.100720328166</v>
+        <v>1331.011434008613</v>
       </c>
       <c r="E17" t="n">
-        <v>701.3124677299215</v>
+        <v>945.2231814103684</v>
       </c>
       <c r="F17" t="n">
-        <v>465.5817675806785</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G17" t="n">
-        <v>49.81782892870201</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870201</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I17" t="n">
         <v>49.81782892870201</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549153</v>
       </c>
       <c r="M17" t="n">
         <v>1187.397991240659</v>
@@ -5536,7 +5536,7 @@
         <v>2299.34732796285</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R17" t="n">
         <v>2490.891446435101</v>
@@ -5548,19 +5548,19 @@
         <v>2490.891446435101</v>
       </c>
       <c r="U17" t="n">
-        <v>2237.305650629179</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="V17" t="n">
-        <v>2237.305650629179</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="W17" t="n">
-        <v>2237.305650629179</v>
+        <v>2481.216364309626</v>
       </c>
       <c r="X17" t="n">
-        <v>1863.839892368099</v>
+        <v>2107.750606048546</v>
       </c>
       <c r="Y17" t="n">
-        <v>1473.700560392288</v>
+        <v>1717.611274072734</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005841</v>
       </c>
       <c r="H18" t="n">
-        <v>71.33540390088822</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I18" t="n">
         <v>49.81782892870201</v>
       </c>
       <c r="J18" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K18" t="n">
-        <v>475.7435727620246</v>
+        <v>560.6342506504925</v>
       </c>
       <c r="L18" t="n">
-        <v>763.7078559446873</v>
+        <v>848.5985338331552</v>
       </c>
       <c r="M18" t="n">
-        <v>1119.105460193359</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N18" t="n">
-        <v>1498.318026423664</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O18" t="n">
-        <v>1823.003644137421</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P18" t="n">
-        <v>2379.537551852668</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R18" t="n">
         <v>2490.891446435101</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T18" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>393.4016083211859</v>
+        <v>324.9174522430997</v>
       </c>
       <c r="C19" t="n">
-        <v>366.8057940872854</v>
+        <v>155.9812693151927</v>
       </c>
       <c r="D19" t="n">
-        <v>366.8057940872854</v>
+        <v>155.9812693151927</v>
       </c>
       <c r="E19" t="n">
-        <v>366.8057940872854</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="F19" t="n">
-        <v>366.8057940872854</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G19" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H19" t="n">
         <v>49.81782892870201</v>
@@ -5697,28 +5697,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R19" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S19" t="n">
-        <v>1308.351743482101</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T19" t="n">
-        <v>1085.259822331916</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="U19" t="n">
-        <v>1085.259822331916</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V19" t="n">
-        <v>1085.259822331916</v>
+        <v>842.3241731780776</v>
       </c>
       <c r="W19" t="n">
-        <v>795.8426522949558</v>
+        <v>552.907003141117</v>
       </c>
       <c r="X19" t="n">
-        <v>795.8426522949558</v>
+        <v>324.9174522430997</v>
       </c>
       <c r="Y19" t="n">
-        <v>575.0500731514256</v>
+        <v>324.9174522430997</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>838.9025835816184</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C20" t="n">
-        <v>838.9025835816184</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D20" t="n">
-        <v>838.9025835816184</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E20" t="n">
-        <v>838.9025835816184</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F20" t="n">
-        <v>838.9025835816184</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G20" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H20" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I20" t="n">
         <v>49.81782892870201</v>
@@ -5779,25 +5779,25 @@
         <v>2490.891446435101</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837424</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="T20" t="n">
-        <v>2364.843483837424</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="U20" t="n">
-        <v>2364.843483837424</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="V20" t="n">
-        <v>2341.876169152746</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="W20" t="n">
-        <v>1989.107513882632</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="X20" t="n">
-        <v>1615.641755621552</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="Y20" t="n">
-        <v>1225.50242364574</v>
+        <v>1648.955765032652</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F21" t="n">
         <v>302.1435952757001</v>
@@ -5831,28 +5831,28 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J21" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K21" t="n">
-        <v>288.9454078621916</v>
+        <v>413.7755328491963</v>
       </c>
       <c r="L21" t="n">
-        <v>576.9096910448543</v>
+        <v>701.7398160318589</v>
       </c>
       <c r="M21" t="n">
-        <v>932.3072952935261</v>
+        <v>1057.137420280531</v>
       </c>
       <c r="N21" t="n">
-        <v>1311.519861523831</v>
+        <v>1436.349986510836</v>
       </c>
       <c r="O21" t="n">
-        <v>1636.205479237588</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.561036994177</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q21" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R21" t="n">
         <v>2490.891446435101</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>200.1447392542424</v>
+        <v>384.8098428256895</v>
       </c>
       <c r="C22" t="n">
-        <v>200.1447392542424</v>
+        <v>384.8098428256895</v>
       </c>
       <c r="D22" t="n">
-        <v>200.1447392542424</v>
+        <v>234.6932034133538</v>
       </c>
       <c r="E22" t="n">
-        <v>200.1447392542424</v>
+        <v>198.792779527604</v>
       </c>
       <c r="F22" t="n">
-        <v>53.25479175633205</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G22" t="n">
-        <v>49.81782892870201</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H22" t="n">
         <v>49.81782892870201</v>
@@ -5934,28 +5934,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R22" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S22" t="n">
-        <v>1308.351743482101</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T22" t="n">
-        <v>1085.259822331916</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="U22" t="n">
-        <v>1085.259822331916</v>
+        <v>1123.009142904198</v>
       </c>
       <c r="V22" t="n">
-        <v>830.5753341260296</v>
+        <v>1123.009142904198</v>
       </c>
       <c r="W22" t="n">
-        <v>830.5753341260296</v>
+        <v>833.591972867237</v>
       </c>
       <c r="X22" t="n">
-        <v>602.5857832280122</v>
+        <v>605.6024219692197</v>
       </c>
       <c r="Y22" t="n">
-        <v>381.7932040844821</v>
+        <v>384.8098428256895</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2174.389612372551</v>
+        <v>1627.111605928757</v>
       </c>
       <c r="C23" t="n">
-        <v>1805.42709543214</v>
+        <v>1258.149088988346</v>
       </c>
       <c r="D23" t="n">
-        <v>1447.161396825389</v>
+        <v>899.8833903815951</v>
       </c>
       <c r="E23" t="n">
-        <v>1061.373144227145</v>
+        <v>835.5972996775147</v>
       </c>
       <c r="F23" t="n">
-        <v>650.3872394375373</v>
+        <v>424.6113948879071</v>
       </c>
       <c r="G23" t="n">
-        <v>234.6233007855608</v>
+        <v>424.6113948879071</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402487</v>
+        <v>189.753895820994</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382141</v>
+        <v>437.3637422189594</v>
       </c>
       <c r="L23" t="n">
-        <v>781.4474136939255</v>
+        <v>781.4474136939259</v>
       </c>
       <c r="M23" t="n">
-        <v>1195.976233479669</v>
+        <v>1195.97623347967</v>
       </c>
       <c r="N23" t="n">
         <v>1621.826371324918</v>
@@ -6010,7 +6010,7 @@
         <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
-        <v>2483.024945800757</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
@@ -6022,19 +6022,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U23" t="n">
-        <v>2564.528944348363</v>
+        <v>2310.943148542442</v>
       </c>
       <c r="V23" t="n">
-        <v>2564.528944348363</v>
+        <v>1979.880261198871</v>
       </c>
       <c r="W23" t="n">
-        <v>2564.528944348363</v>
+        <v>1627.111605928757</v>
       </c>
       <c r="X23" t="n">
-        <v>2564.528944348363</v>
+        <v>1627.111605928757</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.389612372551</v>
+        <v>1627.111605928757</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.7757971549145</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C24" t="n">
-        <v>758.3227678737875</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J24" t="n">
         <v>235.5386773892861</v>
       </c>
       <c r="K24" t="n">
-        <v>415.2482828074616</v>
+        <v>677.0688674499144</v>
       </c>
       <c r="L24" t="n">
-        <v>703.2125659901242</v>
+        <v>1152.623494811488</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.610170238796</v>
+        <v>1508.021099060159</v>
       </c>
       <c r="N24" t="n">
-        <v>1437.822736469101</v>
+        <v>1887.233665290464</v>
       </c>
       <c r="O24" t="n">
-        <v>1762.508354182858</v>
+        <v>2211.919283004222</v>
       </c>
       <c r="P24" t="n">
-        <v>2245.19853490744</v>
+        <v>2453.175049765931</v>
       </c>
       <c r="Q24" t="n">
         <v>2564.528944348363</v>
@@ -6113,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>982.1344074660968</v>
+        <v>657.25082855827</v>
       </c>
       <c r="C25" t="n">
-        <v>813.1982245381899</v>
+        <v>488.3146456303631</v>
       </c>
       <c r="D25" t="n">
-        <v>663.0815851258542</v>
+        <v>488.3146456303631</v>
       </c>
       <c r="E25" t="n">
-        <v>515.1684915434611</v>
+        <v>340.40155204797</v>
       </c>
       <c r="F25" t="n">
-        <v>368.2785440455507</v>
+        <v>193.5116045500596</v>
       </c>
       <c r="G25" t="n">
-        <v>200.2655294858693</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="H25" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I25" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J25" t="n">
         <v>74.92003001304163</v>
@@ -6174,25 +6174,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S25" t="n">
-        <v>1413.601678533241</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T25" t="n">
-        <v>1413.601678533241</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="U25" t="n">
-        <v>1124.481892862463</v>
+        <v>1321.573332492414</v>
       </c>
       <c r="V25" t="n">
-        <v>1124.481892862463</v>
+        <v>1066.888844286527</v>
       </c>
       <c r="W25" t="n">
-        <v>1124.481892862463</v>
+        <v>1066.888844286527</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.481892862463</v>
+        <v>838.8992933885097</v>
       </c>
       <c r="Y25" t="n">
-        <v>1124.481892862463</v>
+        <v>838.8992933885097</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1211.108468743938</v>
+        <v>1315.658448309046</v>
       </c>
       <c r="C26" t="n">
-        <v>1211.108468743938</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="D26" t="n">
-        <v>852.8427701371879</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="E26" t="n">
-        <v>467.0545175389437</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0545175389437</v>
+        <v>535.7100265790262</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J26" t="n">
-        <v>182.6484035402487</v>
+        <v>254.8131514952466</v>
       </c>
       <c r="K26" t="n">
-        <v>430.2582499382141</v>
+        <v>502.4229978932121</v>
       </c>
       <c r="L26" t="n">
-        <v>774.3419214131807</v>
+        <v>846.5066693681786</v>
       </c>
       <c r="M26" t="n">
         <v>1261.035489153922</v>
@@ -6247,7 +6247,7 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2548.08420147501</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
@@ -6259,19 +6259,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U26" t="n">
-        <v>2564.528944348363</v>
+        <v>2310.943148542442</v>
       </c>
       <c r="V26" t="n">
-        <v>2564.528944348363</v>
+        <v>2058.566435554972</v>
       </c>
       <c r="W26" t="n">
-        <v>2211.760289078249</v>
+        <v>1705.797780284857</v>
       </c>
       <c r="X26" t="n">
-        <v>1838.294530817169</v>
+        <v>1705.797780284857</v>
       </c>
       <c r="Y26" t="n">
-        <v>1448.155198841357</v>
+        <v>1315.658448309046</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C27" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125358</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339653</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G27" t="n">
         <v>166.883266103321</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915348</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J27" t="n">
         <v>235.5386773892861</v>
       </c>
       <c r="K27" t="n">
-        <v>656.6826967703341</v>
+        <v>415.2482828074616</v>
       </c>
       <c r="L27" t="n">
-        <v>944.6469799529968</v>
+        <v>703.2125659901242</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.044584201669</v>
+        <v>1058.610170238796</v>
       </c>
       <c r="N27" t="n">
-        <v>1679.257150431974</v>
+        <v>1437.822736469101</v>
       </c>
       <c r="O27" t="n">
-        <v>2003.942768145731</v>
+        <v>1762.508354182858</v>
       </c>
       <c r="P27" t="n">
         <v>2245.19853490744</v>
@@ -6332,7 +6332,7 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S27" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T27" t="n">
         <v>2234.084585692265</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>673.1030364480782</v>
+        <v>519.2271588999375</v>
       </c>
       <c r="C28" t="n">
-        <v>504.1668535201713</v>
+        <v>350.2909759720307</v>
       </c>
       <c r="D28" t="n">
-        <v>504.1668535201713</v>
+        <v>350.2909759720307</v>
       </c>
       <c r="E28" t="n">
-        <v>504.1668535201713</v>
+        <v>325.957167055544</v>
       </c>
       <c r="F28" t="n">
-        <v>368.2785440455507</v>
+        <v>325.957167055544</v>
       </c>
       <c r="G28" t="n">
-        <v>200.2655294858693</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="H28" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J28" t="n">
         <v>74.92003001304163</v>
@@ -6408,28 +6408,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R28" t="n">
-        <v>1610.693118163192</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.601678533241</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="T28" t="n">
-        <v>1190.509757383056</v>
+        <v>1283.824011920133</v>
       </c>
       <c r="U28" t="n">
-        <v>1190.509757383056</v>
+        <v>994.7042262493545</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.509757383056</v>
+        <v>740.0197380434677</v>
       </c>
       <c r="W28" t="n">
-        <v>901.0925873460956</v>
+        <v>740.0197380434677</v>
       </c>
       <c r="X28" t="n">
-        <v>673.1030364480782</v>
+        <v>740.0197380434677</v>
       </c>
       <c r="Y28" t="n">
-        <v>673.1030364480782</v>
+        <v>519.2271588999375</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1515.773775704796</v>
+        <v>1643.948460862064</v>
       </c>
       <c r="C29" t="n">
-        <v>1515.773775704796</v>
+        <v>1274.985943921652</v>
       </c>
       <c r="D29" t="n">
-        <v>1157.508077098046</v>
+        <v>916.7202453149016</v>
       </c>
       <c r="E29" t="n">
-        <v>771.7198244998012</v>
+        <v>530.9319927166573</v>
       </c>
       <c r="F29" t="n">
-        <v>771.7198244998012</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="G29" t="n">
-        <v>355.9558858478247</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H29" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J29" t="n">
-        <v>182.6484035402487</v>
+        <v>254.8131514952466</v>
       </c>
       <c r="K29" t="n">
-        <v>430.2582499382141</v>
+        <v>502.4229978932121</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3419214131807</v>
+        <v>846.5066693681786</v>
       </c>
       <c r="M29" t="n">
-        <v>1188.870741198924</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N29" t="n">
-        <v>1614.720879044173</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O29" t="n">
         <v>2075.668575230788</v>
@@ -6484,7 +6484,7 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
@@ -6502,13 +6502,13 @@
         <v>2564.528944348363</v>
       </c>
       <c r="W29" t="n">
-        <v>2211.760289078249</v>
+        <v>2407.553551098955</v>
       </c>
       <c r="X29" t="n">
-        <v>1838.294530817169</v>
+        <v>2034.087792837875</v>
       </c>
       <c r="Y29" t="n">
-        <v>1838.294530817169</v>
+        <v>1643.948460862064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C30" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J30" t="n">
         <v>235.5386773892861</v>
       </c>
       <c r="K30" t="n">
-        <v>656.6826967703341</v>
+        <v>656.6826967703346</v>
       </c>
       <c r="L30" t="n">
-        <v>944.6469799529968</v>
+        <v>944.6469799529973</v>
       </c>
       <c r="M30" t="n">
         <v>1300.044584201669</v>
@@ -6578,7 +6578,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6587,7 +6587,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y30" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.29057888696726</v>
+        <v>789.6963910637544</v>
       </c>
       <c r="C31" t="n">
-        <v>51.29057888696726</v>
+        <v>620.7602081358475</v>
       </c>
       <c r="D31" t="n">
-        <v>51.29057888696726</v>
+        <v>620.7602081358475</v>
       </c>
       <c r="E31" t="n">
-        <v>51.29057888696726</v>
+        <v>472.8471145534544</v>
       </c>
       <c r="F31" t="n">
-        <v>51.29057888696726</v>
+        <v>325.957167055544</v>
       </c>
       <c r="G31" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J31" t="n">
         <v>74.92003001304163</v>
@@ -6645,28 +6645,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R31" t="n">
-        <v>1610.693118163192</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.693118163192</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.601197013008</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.481411342229</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="V31" t="n">
-        <v>843.7969231363426</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="W31" t="n">
-        <v>554.379753099382</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="X31" t="n">
-        <v>326.3902022013647</v>
+        <v>858.7430213921641</v>
       </c>
       <c r="Y31" t="n">
-        <v>105.5976230578346</v>
+        <v>858.7430213921641</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1288.276051449673</v>
+        <v>2059.71239951404</v>
       </c>
       <c r="C32" t="n">
-        <v>1288.276051449673</v>
+        <v>1690.749882573628</v>
       </c>
       <c r="D32" t="n">
-        <v>1288.276051449673</v>
+        <v>1332.484183966878</v>
       </c>
       <c r="E32" t="n">
-        <v>902.4877988514286</v>
+        <v>946.6959313686336</v>
       </c>
       <c r="F32" t="n">
-        <v>491.501894061821</v>
+        <v>535.7100265790261</v>
       </c>
       <c r="G32" t="n">
-        <v>75.73795540984452</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I32" t="n">
         <v>51.29057888696726</v>
@@ -6718,7 +6718,7 @@
         <v>2003.50382727579</v>
       </c>
       <c r="P32" t="n">
-        <v>2307.92557020186</v>
+        <v>2300.820077921115</v>
       </c>
       <c r="Q32" t="n">
         <v>2483.024945800757</v>
@@ -6727,25 +6727,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2438.480981750686</v>
+        <v>2446.312239578162</v>
       </c>
       <c r="T32" t="n">
-        <v>2438.480981750686</v>
+        <v>2446.312239578162</v>
       </c>
       <c r="U32" t="n">
-        <v>2438.480981750686</v>
+        <v>2446.312239578162</v>
       </c>
       <c r="V32" t="n">
-        <v>2438.480981750686</v>
+        <v>2446.312239578162</v>
       </c>
       <c r="W32" t="n">
-        <v>2438.480981750686</v>
+        <v>2446.312239578162</v>
       </c>
       <c r="X32" t="n">
-        <v>2065.015223489606</v>
+        <v>2446.312239578162</v>
       </c>
       <c r="Y32" t="n">
-        <v>1674.875891513795</v>
+        <v>2446.312239578162</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.7757971549141</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C33" t="n">
-        <v>758.3227678737871</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G33" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H33" t="n">
         <v>72.80815385915346</v>
@@ -6815,7 +6815,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V33" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W33" t="n">
         <v>1516.602933145469</v>
@@ -6824,7 +6824,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y33" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3902022013647</v>
+        <v>473.7702829216798</v>
       </c>
       <c r="C34" t="n">
-        <v>157.4540192734578</v>
+        <v>304.8340999937729</v>
       </c>
       <c r="D34" t="n">
-        <v>157.4540192734578</v>
+        <v>304.8340999937729</v>
       </c>
       <c r="E34" t="n">
-        <v>157.4540192734578</v>
+        <v>304.8340999937729</v>
       </c>
       <c r="F34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="G34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="H34" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958625</v>
       </c>
       <c r="I34" t="n">
         <v>51.29057888696726</v>
@@ -6888,22 +6888,22 @@
         <v>1610.693118163192</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.601197013008</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.481411342229</v>
+        <v>1321.573332492414</v>
       </c>
       <c r="V34" t="n">
-        <v>843.7969231363426</v>
+        <v>1066.888844286527</v>
       </c>
       <c r="W34" t="n">
-        <v>554.379753099382</v>
+        <v>1066.888844286527</v>
       </c>
       <c r="X34" t="n">
-        <v>326.3902022013647</v>
+        <v>838.8992933885097</v>
       </c>
       <c r="Y34" t="n">
-        <v>326.3902022013647</v>
+        <v>618.1067142449796</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1509.522991884162</v>
+        <v>915.4666585225864</v>
       </c>
       <c r="C35" t="n">
-        <v>1509.522991884162</v>
+        <v>546.5041415821747</v>
       </c>
       <c r="D35" t="n">
-        <v>1151.257293277411</v>
+        <v>546.5041415821747</v>
       </c>
       <c r="E35" t="n">
-        <v>765.4690406791669</v>
+        <v>160.7158889839305</v>
       </c>
       <c r="F35" t="n">
-        <v>354.4831358895594</v>
+        <v>160.7158889839305</v>
       </c>
       <c r="G35" t="n">
-        <v>354.4831358895594</v>
+        <v>160.7158889839305</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870201</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I35" t="n">
         <v>49.81782892870201</v>
@@ -6964,25 +6964,25 @@
         <v>2490.891446435101</v>
       </c>
       <c r="S35" t="n">
-        <v>2402.359273009124</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T35" t="n">
-        <v>2193.354534497847</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U35" t="n">
-        <v>2193.354534497847</v>
+        <v>2028.300912117902</v>
       </c>
       <c r="V35" t="n">
-        <v>1862.291647154276</v>
+        <v>2028.300912117902</v>
       </c>
       <c r="W35" t="n">
-        <v>1509.522991884162</v>
+        <v>1675.532256847788</v>
       </c>
       <c r="X35" t="n">
-        <v>1509.522991884162</v>
+        <v>1302.066498586708</v>
       </c>
       <c r="Y35" t="n">
-        <v>1509.522991884162</v>
+        <v>1302.066498586708</v>
       </c>
     </row>
     <row r="36">
@@ -7016,40 +7016,40 @@
         <v>49.81782892870201</v>
       </c>
       <c r="J36" t="n">
-        <v>141.5150087964434</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>583.0451988570717</v>
+        <v>560.6342506504925</v>
       </c>
       <c r="L36" t="n">
-        <v>871.0094820397344</v>
+        <v>848.5985338331552</v>
       </c>
       <c r="M36" t="n">
-        <v>1226.407086288406</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N36" t="n">
-        <v>1605.619652518711</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O36" t="n">
-        <v>1930.305270232468</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.561036994177</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R36" t="n">
         <v>2490.891446435101</v>
       </c>
       <c r="S36" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T36" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V36" t="n">
         <v>1769.367539915405</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>581.9012824556409</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="C37" t="n">
-        <v>412.965099527734</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="D37" t="n">
-        <v>412.965099527734</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E37" t="n">
-        <v>364.7207909862938</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F37" t="n">
         <v>217.8308434883834</v>
@@ -7119,28 +7119,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R37" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S37" t="n">
-        <v>1609.220368204927</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T37" t="n">
-        <v>1609.220368204927</v>
+        <v>1137.678608397131</v>
       </c>
       <c r="U37" t="n">
-        <v>1320.100582534149</v>
+        <v>1137.678608397131</v>
       </c>
       <c r="V37" t="n">
-        <v>1320.100582534149</v>
+        <v>1137.678608397131</v>
       </c>
       <c r="W37" t="n">
-        <v>1030.683412497188</v>
+        <v>848.2614383601706</v>
       </c>
       <c r="X37" t="n">
-        <v>802.693861599171</v>
+        <v>620.2718874621532</v>
       </c>
       <c r="Y37" t="n">
-        <v>581.9012824556409</v>
+        <v>399.4793083186231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1234.833370977037</v>
+        <v>1566.13079912878</v>
       </c>
       <c r="C38" t="n">
-        <v>1234.833370977037</v>
+        <v>1197.168282188369</v>
       </c>
       <c r="D38" t="n">
-        <v>876.5676723702861</v>
+        <v>838.9025835816183</v>
       </c>
       <c r="E38" t="n">
-        <v>876.5676723702861</v>
+        <v>838.9025835816183</v>
       </c>
       <c r="F38" t="n">
-        <v>465.5817675806785</v>
+        <v>838.9025835816183</v>
       </c>
       <c r="G38" t="n">
-        <v>49.817828928702</v>
+        <v>423.1386449296418</v>
       </c>
       <c r="H38" t="n">
-        <v>49.817828928702</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I38" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J38" t="n">
         <v>181.1756535819834</v>
@@ -7180,7 +7180,7 @@
         <v>428.7854999799488</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549153</v>
       </c>
       <c r="M38" t="n">
         <v>1187.397991240659</v>
@@ -7189,7 +7189,7 @@
         <v>1613.248129085908</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P38" t="n">
         <v>2299.34732796285</v>
@@ -7201,25 +7201,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S38" t="n">
-        <v>2364.843483837423</v>
+        <v>2458.967080253742</v>
       </c>
       <c r="T38" t="n">
-        <v>2192.947812387608</v>
+        <v>2249.962341742465</v>
       </c>
       <c r="U38" t="n">
-        <v>1939.362016581687</v>
+        <v>2249.962341742465</v>
       </c>
       <c r="V38" t="n">
-        <v>1608.299129238116</v>
+        <v>1918.899454398894</v>
       </c>
       <c r="W38" t="n">
-        <v>1608.299129238116</v>
+        <v>1566.13079912878</v>
       </c>
       <c r="X38" t="n">
-        <v>1234.833370977037</v>
+        <v>1566.13079912878</v>
       </c>
       <c r="Y38" t="n">
-        <v>1234.833370977037</v>
+        <v>1566.13079912878</v>
       </c>
     </row>
     <row r="39">
@@ -7229,61 +7229,61 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>859.1382992416511</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C39" t="n">
-        <v>684.6852699605241</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D39" t="n">
-        <v>535.7508602992729</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E39" t="n">
-        <v>376.5134052938174</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F39" t="n">
-        <v>229.9788473207023</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G39" t="n">
-        <v>93.24576819005796</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H39" t="n">
-        <v>49.817828928702</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I39" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J39" t="n">
         <v>234.0659274310208</v>
       </c>
       <c r="K39" t="n">
-        <v>413.7755328491963</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L39" t="n">
-        <v>701.7398160318589</v>
+        <v>848.5985338331543</v>
       </c>
       <c r="M39" t="n">
-        <v>1057.137420280531</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N39" t="n">
-        <v>1436.349986510836</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O39" t="n">
-        <v>1761.035604224593</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P39" t="n">
-        <v>2149.150088787598</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q39" t="n">
-        <v>2468.480498228521</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R39" t="n">
         <v>2490.8914464351</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U39" t="n">
         <v>1932.35490019215</v>
@@ -7292,7 +7292,7 @@
         <v>1697.202791960407</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232206</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
         <v>1235.113935026673</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>494.7375094213412</v>
+        <v>552.907003141117</v>
       </c>
       <c r="C40" t="n">
-        <v>494.7375094213412</v>
+        <v>552.907003141117</v>
       </c>
       <c r="D40" t="n">
-        <v>344.6208700090054</v>
+        <v>402.7903637287812</v>
       </c>
       <c r="E40" t="n">
-        <v>196.7077764266124</v>
+        <v>254.8772701463881</v>
       </c>
       <c r="F40" t="n">
-        <v>49.817828928702</v>
+        <v>254.8772701463881</v>
       </c>
       <c r="G40" t="n">
-        <v>49.817828928702</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H40" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I40" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J40" t="n">
         <v>73.44728005477636</v>
@@ -7362,22 +7362,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T40" t="n">
-        <v>1609.220368204927</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="U40" t="n">
-        <v>1320.100582534149</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V40" t="n">
-        <v>1065.416094328262</v>
+        <v>842.3241731780776</v>
       </c>
       <c r="W40" t="n">
-        <v>775.9989242913014</v>
+        <v>552.907003141117</v>
       </c>
       <c r="X40" t="n">
-        <v>676.3859742515809</v>
+        <v>552.907003141117</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.3859742515809</v>
+        <v>552.907003141117</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>845.7015535159467</v>
+        <v>1512.113617544413</v>
       </c>
       <c r="C41" t="n">
-        <v>476.7390365755349</v>
+        <v>1512.113617544413</v>
       </c>
       <c r="D41" t="n">
-        <v>118.4733379687844</v>
+        <v>1153.847918937662</v>
       </c>
       <c r="E41" t="n">
-        <v>118.4733379687844</v>
+        <v>945.2231814103684</v>
       </c>
       <c r="F41" t="n">
-        <v>118.4733379687844</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G41" t="n">
         <v>118.4733379687844</v>
@@ -7417,19 +7417,19 @@
         <v>428.7854999799488</v>
       </c>
       <c r="L41" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549153</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q41" t="n">
         <v>2474.446703561747</v>
@@ -7441,22 +7441,22 @@
         <v>2364.843483837423</v>
       </c>
       <c r="T41" t="n">
-        <v>2156.584650196633</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U41" t="n">
-        <v>1902.998854390711</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="V41" t="n">
-        <v>1571.935967047141</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="W41" t="n">
-        <v>1219.167311777026</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="X41" t="n">
-        <v>845.7015535159467</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="Y41" t="n">
-        <v>845.7015535159467</v>
+        <v>1512.113617544413</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416507</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
-        <v>376.5134052938169</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F42" t="n">
-        <v>229.9788473207019</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G42" t="n">
-        <v>93.2457681900575</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H42" t="n">
-        <v>49.81782892870199</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I42" t="n">
         <v>49.81782892870199</v>
@@ -7493,25 +7493,25 @@
         <v>234.0659274310208</v>
       </c>
       <c r="K42" t="n">
-        <v>583.0451988570708</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L42" t="n">
-        <v>871.0094820397335</v>
+        <v>848.5985338331543</v>
       </c>
       <c r="M42" t="n">
-        <v>1226.407086288405</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N42" t="n">
-        <v>1605.61965251871</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O42" t="n">
-        <v>1930.305270232467</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.561036994176</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q42" t="n">
-        <v>2490.8914464351</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R42" t="n">
         <v>2490.8914464351</v>
@@ -7520,22 +7520,22 @@
         <v>2354.581362957454</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026673</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261719</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>515.8605764831123</v>
+        <v>868.3246546983108</v>
       </c>
       <c r="C43" t="n">
-        <v>515.8605764831123</v>
+        <v>699.388471770404</v>
       </c>
       <c r="D43" t="n">
-        <v>365.7439370707765</v>
+        <v>549.2718323580682</v>
       </c>
       <c r="E43" t="n">
-        <v>217.8308434883834</v>
+        <v>401.3587387756751</v>
       </c>
       <c r="F43" t="n">
-        <v>217.8308434883834</v>
+        <v>254.4687912777647</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870199</v>
+        <v>254.4687912777647</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870199</v>
+        <v>105.4938406788627</v>
       </c>
       <c r="I43" t="n">
         <v>49.81782892870199</v>
@@ -7596,25 +7596,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
-        <v>1609.220368204927</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T43" t="n">
-        <v>1386.128447054743</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="U43" t="n">
-        <v>1097.008661383964</v>
+        <v>1123.009142904198</v>
       </c>
       <c r="V43" t="n">
-        <v>1097.008661383964</v>
+        <v>868.3246546983108</v>
       </c>
       <c r="W43" t="n">
-        <v>1097.008661383964</v>
+        <v>868.3246546983108</v>
       </c>
       <c r="X43" t="n">
-        <v>918.3016204568821</v>
+        <v>868.3246546983108</v>
       </c>
       <c r="Y43" t="n">
-        <v>697.509041313352</v>
+        <v>868.3246546983108</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1514.301025746531</v>
+        <v>1340.686516134086</v>
       </c>
       <c r="C44" t="n">
-        <v>1514.301025746531</v>
+        <v>971.7239991936747</v>
       </c>
       <c r="D44" t="n">
-        <v>1156.03532713978</v>
+        <v>971.7239991936747</v>
       </c>
       <c r="E44" t="n">
-        <v>770.247074541536</v>
+        <v>971.7239991936747</v>
       </c>
       <c r="F44" t="n">
-        <v>770.247074541536</v>
+        <v>560.7380944040672</v>
       </c>
       <c r="G44" t="n">
-        <v>354.4831358895594</v>
+        <v>144.9741557520907</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I44" t="n">
         <v>49.81782892870199</v>
@@ -7654,19 +7654,19 @@
         <v>428.7854999799488</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549153</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M44" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O44" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
         <v>2474.446703561747</v>
@@ -7687,13 +7687,13 @@
         <v>2490.8914464351</v>
       </c>
       <c r="W44" t="n">
-        <v>2291.040197786464</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="X44" t="n">
-        <v>2291.040197786464</v>
+        <v>2117.42568817402</v>
       </c>
       <c r="Y44" t="n">
-        <v>1900.900865810652</v>
+        <v>1727.286356198208</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>234.0659274310208</v>
       </c>
       <c r="K45" t="n">
-        <v>413.7755328491963</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L45" t="n">
-        <v>701.7398160318589</v>
+        <v>848.5985338331543</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.407086288405</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.61965251871</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O45" t="n">
-        <v>1930.305270232467</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.561036994176</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.8914464351</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R45" t="n">
         <v>2490.8914464351</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>516.7837448513377</v>
+        <v>252.0383784182907</v>
       </c>
       <c r="C46" t="n">
-        <v>347.8475619234308</v>
+        <v>83.10219549038382</v>
       </c>
       <c r="D46" t="n">
-        <v>197.7309225110951</v>
+        <v>83.10219549038382</v>
       </c>
       <c r="E46" t="n">
-        <v>49.81782892870199</v>
+        <v>83.10219549038382</v>
       </c>
       <c r="F46" t="n">
-        <v>49.81782892870199</v>
+        <v>83.10219549038382</v>
       </c>
       <c r="G46" t="n">
-        <v>49.81782892870199</v>
+        <v>83.10219549038382</v>
       </c>
       <c r="H46" t="n">
-        <v>49.81782892870199</v>
+        <v>83.10219549038382</v>
       </c>
       <c r="I46" t="n">
         <v>49.81782892870199</v>
@@ -7830,28 +7830,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R46" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S46" t="n">
-        <v>1509.667533135733</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T46" t="n">
-        <v>1509.667533135733</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="U46" t="n">
-        <v>1509.667533135733</v>
+        <v>796.1400366611382</v>
       </c>
       <c r="V46" t="n">
-        <v>1254.983044929846</v>
+        <v>541.4555484552513</v>
       </c>
       <c r="W46" t="n">
-        <v>965.5658748928852</v>
+        <v>252.0383784182907</v>
       </c>
       <c r="X46" t="n">
-        <v>737.5763239948678</v>
+        <v>252.0383784182907</v>
       </c>
       <c r="Y46" t="n">
-        <v>516.7837448513377</v>
+        <v>252.0383784182907</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>32.60525894184487</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>297.0704959544241</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>22.88434839053377</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>32.60525894184576</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>148.3421391932289</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.6850150503364</v>
+        <v>148.3421391932285</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>148.3421391932287</v>
       </c>
       <c r="P21" t="n">
-        <v>297.0704959544243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.177264930045794</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>7.177264930045339</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>189.4851961403139</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>243.873145417043</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>22.88434839053377</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.89368480302826</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>72.89368480302812</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>243.873145417043</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>243.8731454170435</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>72.89368480302826</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>72.89368480302824</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>243.873145417043</v>
+        <v>243.8731454170435</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>7.177264930045453</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>7.177264930045652</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>32.60525894184576</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>148.3421391932285</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>148.3421391932276</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>148.342139193228</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>170.9794606140147</v>
+        <v>148.3421391932276</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>148.3421391932276</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>170.9794606140148</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>249.2742886378182</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.16944118473265</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>50.14070125298397</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>71.44310047544825</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>90.01871925102657</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
         <v>147.485201092913</v>
@@ -23466,7 +23466,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>89.10478256648283</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>48.93724578463963</v>
       </c>
       <c r="H14" t="n">
         <v>301.6186538912489</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>339.8299534067216</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>50.14070125298299</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>71.44310047544687</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.3328844140846</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>26.91274668559259</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.56289192294759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>173.5026525939608</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>339.6626374131932</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>50.14070125298299</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>71.44310047544725</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>140.9169650070664</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>41.33215666394335</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
         <v>105.5870378728063</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>47.24019771779908</v>
       </c>
       <c r="T20" t="n">
         <v>206.9146911261644</v>
@@ -24028,10 +24028,10 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>305.0146169323041</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>71.44310047544728</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>71.44310047544738</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>110.8925429996769</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>162.9302912147309</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>105.5870378728063</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>318.2871402752222</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>120.1192592116412</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.90796963953508</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>131.1211068804295</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
         <v>220.8610019386828</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>148.0575788670361</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>77.89931261253918</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>122.3434918192474</v>
       </c>
       <c r="F28" t="n">
-        <v>10.89162164305679</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>63.43829410223145</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>193.8353294004989</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>126.0680064527787</v>
+        <v>111.4758161568117</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>277.4157511336004</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>7.752945249201147</v>
       </c>
       <c r="T32" t="n">
         <v>206.9146911261644</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>36.93891317187058</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>40.31924204030567</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3328844140846</v>
@@ -25095,7 +25095,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>259.7985283862543</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.14063127998297</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>71.44310047544725</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>71.4431004754473</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>98.67209719054337</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>51.89459820456275</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>93.18236045215615</v>
       </c>
       <c r="T38" t="n">
-        <v>36.73797639084765</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>50.14070125298342</v>
+        <v>71.4431004754482</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>110.8092387014883</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>105.5870378728063</v>
@@ -25602,7 +25602,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>127.0928348497139</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>175.391879920241</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7384458217820793</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>50.14070125298387</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>71.44310047544816</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5870378728063</v>
+        <v>50.46778624014721</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>48.78968487122569</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>275.3828442857757</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>151.3882325552637</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
-        <v>105.5870378728063</v>
+        <v>72.63551497674132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>96.56321851514934</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>650212.2493578204</v>
+        <v>650212.2493578205</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>650212.2493578203</v>
+        <v>650212.2493578204</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>650212.2493578203</v>
+        <v>650212.2493578206</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>650212.2493578204</v>
+        <v>650212.2493578203</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>650212.2493578203</v>
+        <v>650212.2493578201</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019269</v>
       </c>
       <c r="C2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019268</v>
       </c>
       <c r="D2" t="n">
-        <v>573493.4371019269</v>
+        <v>573493.4371019268</v>
       </c>
       <c r="E2" t="n">
-        <v>421649.7197352587</v>
+        <v>421649.7197352588</v>
       </c>
       <c r="F2" t="n">
         <v>421649.7197352587</v>
       </c>
       <c r="G2" t="n">
-        <v>421649.7197352589</v>
+        <v>421649.7197352585</v>
       </c>
       <c r="H2" t="n">
-        <v>421649.7197352588</v>
+        <v>421649.7197352587</v>
       </c>
       <c r="I2" t="n">
         <v>427750.960515862</v>
       </c>
       <c r="J2" t="n">
+        <v>427750.9605158622</v>
+      </c>
+      <c r="K2" t="n">
+        <v>427750.9605158623</v>
+      </c>
+      <c r="L2" t="n">
         <v>427750.960515862</v>
-      </c>
-      <c r="K2" t="n">
-        <v>427750.960515862</v>
-      </c>
-      <c r="L2" t="n">
-        <v>427750.9605158619</v>
       </c>
       <c r="M2" t="n">
         <v>421649.7197352587</v>
       </c>
       <c r="N2" t="n">
-        <v>421649.7197352585</v>
+        <v>421649.7197352588</v>
       </c>
       <c r="O2" t="n">
+        <v>421649.7197352587</v>
+      </c>
+      <c r="P2" t="n">
         <v>421649.7197352588</v>
-      </c>
-      <c r="P2" t="n">
-        <v>421649.7197352585</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761242</v>
+        <v>924651.579376124</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.704436726868153e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648166</v>
+        <v>4895.439270648196</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468591</v>
+        <v>150597.338246859</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.60406141439</v>
       </c>
       <c r="F4" t="n">
         <v>18245.60406141439</v>
@@ -26438,28 +26438,28 @@
         <v>18245.60406141439</v>
       </c>
       <c r="I4" t="n">
-        <v>21593.82968547186</v>
+        <v>21593.82968547188</v>
       </c>
       <c r="J4" t="n">
+        <v>21593.82968547188</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21593.82968547188</v>
+      </c>
+      <c r="L4" t="n">
         <v>21593.82968547187</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21593.82968547187</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21593.82968547186</v>
       </c>
       <c r="M4" t="n">
         <v>18245.60406141439</v>
       </c>
       <c r="N4" t="n">
-        <v>18245.60406141438</v>
+        <v>18245.60406141437</v>
       </c>
       <c r="O4" t="n">
-        <v>18245.60406141438</v>
+        <v>18245.60406141437</v>
       </c>
       <c r="P4" t="n">
-        <v>18245.60406141438</v>
+        <v>18245.60406141437</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="F5" t="n">
         <v>57906.41050425676</v>
@@ -26490,13 +26490,13 @@
         <v>57906.41050425676</v>
       </c>
       <c r="I5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253835</v>
       </c>
       <c r="J5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253835</v>
       </c>
       <c r="K5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253835</v>
       </c>
       <c r="L5" t="n">
         <v>59025.70047253834</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114298.5621571424</v>
+        <v>114338.2843579553</v>
       </c>
       <c r="C6" t="n">
-        <v>114298.5621571423</v>
+        <v>114338.2843579551</v>
       </c>
       <c r="D6" t="n">
-        <v>114298.5621571423</v>
+        <v>114338.2843579552</v>
       </c>
       <c r="E6" t="n">
-        <v>-584620.9998911701</v>
+        <v>-579700.5867749997</v>
       </c>
       <c r="F6" t="n">
-        <v>340030.579484954</v>
+        <v>344950.992601124</v>
       </c>
       <c r="G6" t="n">
-        <v>340030.5794849542</v>
+        <v>344950.992601124</v>
       </c>
       <c r="H6" t="n">
-        <v>340030.5794849541</v>
+        <v>344950.9926011242</v>
       </c>
       <c r="I6" t="n">
-        <v>336986.7668590202</v>
+        <v>341711.0686643853</v>
       </c>
       <c r="J6" t="n">
-        <v>341882.2061296683</v>
+        <v>346606.5079350336</v>
       </c>
       <c r="K6" t="n">
-        <v>341882.2061296683</v>
+        <v>346606.5079350337</v>
       </c>
       <c r="L6" t="n">
-        <v>341882.2061296682</v>
+        <v>346606.5079350335</v>
       </c>
       <c r="M6" t="n">
-        <v>189433.241238095</v>
+        <v>194353.6543542652</v>
       </c>
       <c r="N6" t="n">
-        <v>340030.5794849538</v>
+        <v>344950.9926011243</v>
       </c>
       <c r="O6" t="n">
-        <v>340030.5794849541</v>
+        <v>344950.9926011243</v>
       </c>
       <c r="P6" t="n">
-        <v>340030.5794849539</v>
+        <v>344950.9926011244</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
         <v>919.4890146074875</v>
@@ -26801,7 +26801,7 @@
         <v>622.7228616087749</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087752</v>
       </c>
       <c r="G4" t="n">
         <v>622.7228616087751</v>
@@ -26810,13 +26810,13 @@
         <v>622.7228616087751</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="L4" t="n">
         <v>641.1322360870907</v>
@@ -26825,7 +26825,7 @@
         <v>622.7228616087751</v>
       </c>
       <c r="N4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O4" t="n">
         <v>622.7228616087749</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.156300219329812e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831561</v>
+        <v>18.40937447831573</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304596</v>
+        <v>604.3134871304594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H11" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R11" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T11" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,31 +31834,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I12" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J12" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K12" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
         <v>252.4604554824181</v>
@@ -31867,13 +31867,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H13" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K13" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M13" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O13" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q13" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O11" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>92.62341400781868</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K12" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N12" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>243.6926936986961</v>
+        <v>540.7631896531202</v>
       </c>
       <c r="Q12" t="n">
         <v>322.5559691322457</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
@@ -35576,19 +35576,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M13" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>92.62341400781958</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703316</v>
+        <v>329.866993150982</v>
       </c>
       <c r="L15" t="n">
         <v>290.8730133158209</v>
@@ -35749,7 +35749,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>176.8680561605026</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722559</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K18" t="n">
-        <v>370.2098690080894</v>
+        <v>329.8669931509815</v>
       </c>
       <c r="L18" t="n">
         <v>290.8730133158209</v>
@@ -35980,13 +35980,13 @@
         <v>327.9652704179365</v>
       </c>
       <c r="P18" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K21" t="n">
         <v>181.524853957753</v>
@@ -36214,16 +36214,16 @@
         <v>383.0429961922272</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179365</v>
+        <v>476.3074096111652</v>
       </c>
       <c r="P21" t="n">
-        <v>540.7631896531204</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
         <v>322.5559691322457</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969967</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575409</v>
       </c>
       <c r="L23" t="n">
-        <v>354.7365290461731</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M23" t="n">
         <v>418.7159795815594</v>
@@ -36439,10 +36439,10 @@
         <v>186.1091904063827</v>
       </c>
       <c r="K24" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158209</v>
+        <v>480.3582094561347</v>
       </c>
       <c r="M24" t="n">
         <v>358.9874790390624</v>
@@ -36454,10 +36454,10 @@
         <v>327.9652704179365</v>
       </c>
       <c r="P24" t="n">
-        <v>487.5658391157392</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q24" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669509</v>
+        <v>205.5783561699792</v>
       </c>
       <c r="K26" t="n">
         <v>250.1109559575409</v>
@@ -36603,7 +36603,7 @@
         <v>347.5592641161277</v>
       </c>
       <c r="M26" t="n">
-        <v>491.6096643845875</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N26" t="n">
         <v>430.1516543891399</v>
@@ -36676,7 +36676,7 @@
         <v>186.1091904063827</v>
       </c>
       <c r="K27" t="n">
-        <v>425.397999374796</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L27" t="n">
         <v>290.8730133158209</v>
@@ -36691,7 +36691,7 @@
         <v>327.9652704179365</v>
       </c>
       <c r="P27" t="n">
-        <v>243.6926936986961</v>
+        <v>487.5658391157396</v>
       </c>
       <c r="Q27" t="n">
         <v>322.5559691322457</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.6846713669509</v>
+        <v>205.5783561699792</v>
       </c>
       <c r="K29" t="n">
         <v>250.1109559575409</v>
@@ -36846,7 +36846,7 @@
         <v>430.1516543891399</v>
       </c>
       <c r="O29" t="n">
-        <v>465.6037335218332</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P29" t="n">
         <v>300.3194450962881</v>
@@ -36913,7 +36913,7 @@
         <v>186.1091904063827</v>
       </c>
       <c r="K30" t="n">
-        <v>425.397999374796</v>
+        <v>425.3979993747965</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158209</v>
@@ -37086,10 +37086,10 @@
         <v>392.710048718805</v>
       </c>
       <c r="P32" t="n">
-        <v>307.4967100263336</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605026</v>
+        <v>184.0453210905482</v>
       </c>
       <c r="R32" t="n">
         <v>82.32727126020748</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>92.62341400781958</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9900909703316</v>
+        <v>329.8669931509815</v>
       </c>
       <c r="L36" t="n">
         <v>290.8730133158209</v>
@@ -37408,7 +37408,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>250.1109559575409</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M38" t="n">
         <v>418.7159795815594</v>
@@ -37566,7 +37566,7 @@
         <v>176.8680561605026</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722467</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>186.1091904063827</v>
       </c>
       <c r="K39" t="n">
-        <v>181.524853957753</v>
+        <v>329.8669931509806</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158209</v>
@@ -37639,7 +37639,7 @@
         <v>327.9652704179365</v>
       </c>
       <c r="P39" t="n">
-        <v>392.0348328919242</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q39" t="n">
         <v>322.5559691322457</v>
@@ -37803,7 +37803,7 @@
         <v>176.8680561605026</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>186.1091904063827</v>
       </c>
       <c r="K42" t="n">
-        <v>352.5043145717677</v>
+        <v>329.8669931509806</v>
       </c>
       <c r="L42" t="n">
         <v>290.8730133158209</v>
@@ -37882,7 +37882,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>176.8680561605026</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>186.1091904063827</v>
       </c>
       <c r="K45" t="n">
-        <v>181.524853957753</v>
+        <v>329.8669931509806</v>
       </c>
       <c r="L45" t="n">
         <v>290.8730133158209</v>
       </c>
       <c r="M45" t="n">
-        <v>529.9669396530771</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N45" t="n">
         <v>383.0429961922272</v>
@@ -38119,7 +38119,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
